--- a/countries_list.xlsx
+++ b/countries_list.xlsx
@@ -14,19 +14,1996 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="661">
   <si>
     <t>Merged Range</t>
   </si>
   <si>
     <t>Countries List</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Ngerulmud</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Vaduz</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Chișinău</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>AUD,TVD</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nouméa</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Ouagadougou</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Libreville</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>South Georgia</t>
+  </si>
+  <si>
+    <t>King Edward Point</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Cockburn Town</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>El Aaiún</t>
+  </si>
+  <si>
+    <t>DZD,MAD,MRU</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Bamako</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Porto-Novo</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Niamey</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Tórshavn</t>
+  </si>
+  <si>
+    <t>DKK,FOK</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>CUC,CUP</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>BYN</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Naypyidaw</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Palikir</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Mata-Utu</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Belmopan</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Jamestown</t>
+  </si>
+  <si>
+    <t>GBP,SHP</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Saint John's</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t>Caribbean Netherlands</t>
+  </si>
+  <si>
+    <t>Kralendijk</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Gitega</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Papeetē</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>São Tomé</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Maseru</t>
+  </si>
+  <si>
+    <t>LSL,ZAR</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Flying Fish Cove</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>KHR,USD</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>MRU</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Pago Pago</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Hagåtña</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Nur-Sultan</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>St. George's</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sri Jayawardenepura Kotte</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>LYD</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>City of San Marino</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Nuku'alofa</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>ERN</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Dodoma</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Pristina</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>BTN,INR</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Basseterre</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>BSD,USD</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Ljubljana</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Sana'a</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>MWK</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>PAB,USD</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>GBP,IMP</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>St. Peter Port</t>
+  </si>
+  <si>
+    <t>GBP,GGP</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Adamstown</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Valletta</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Ashgabat</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Honiara</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Port Vila</t>
+  </si>
+  <si>
+    <t>VUV</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Avarua</t>
+  </si>
+  <si>
+    <t>CKD,NZD</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Ulan Bator</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Fort-de-France</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>The Valley</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Mbabane</t>
+  </si>
+  <si>
+    <t>SZL,ZAR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>West Island</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Podgorica</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Fakaofo</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Saint-Denis</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Port Louis</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Moroni</t>
+  </si>
+  <si>
+    <t>KMF</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>VES</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>City of Victoria</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Port of Spain</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Kigali</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>KPW</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Andorra la Vella</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malé</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Yaren</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>ZWL</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Charlotte Amalie</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mamoudzou</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Alofi</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Freetown</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Lomé</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Saint Helier</t>
+  </si>
+  <si>
+    <t>GBP,JEP</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>ZMW</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Port-aux-Français</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Longyearbyen</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Saipan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Ramallah</t>
+  </si>
+  <si>
+    <t>EGP,ILS,JOD</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Nuuk</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Juba</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Malabo</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>NAD,ZAR</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Dili</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>BND,SGD</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>AUD,KID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,8 +2013,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF4F4F4F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,11 +2048,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,15 +2348,3529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>17818</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>459</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>33846</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1246700</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>1098581</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1285216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>18575</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>357114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>582000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>652230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>93028</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>272967</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>9984670</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>1904569</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>36193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>616</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>267668</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>3903</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>111369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>948</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>266000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>783562</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>1240192</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>112622</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>9251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <v>637657</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>1267000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>1393</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35">
+        <v>92090</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <v>196722</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37">
+        <v>109884</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>207600</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39">
+        <v>430</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>163610</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41">
+        <v>20770</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42">
+        <v>301336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>676578</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44">
+        <v>14000000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45">
+        <v>702</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>23200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48">
+        <v>342000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <v>2344858</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <v>22966</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53">
+        <v>7692024</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54">
+        <v>394</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55">
+        <v>475442</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56">
+        <v>17098242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57">
+        <v>442</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58">
+        <v>377930</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60">
+        <v>328</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61">
+        <v>112492</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>412</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63">
+        <v>27834</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64">
+        <v>406752</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65">
+        <v>2780400</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66">
+        <v>4167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67">
+        <v>964</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68">
+        <v>30355</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69">
+        <v>1886068</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70">
+        <v>21041</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71">
+        <v>135</v>
+      </c>
+      <c r="D71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72">
+        <v>199951</v>
+      </c>
+      <c r="D72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73">
+        <v>8515767</v>
+      </c>
+      <c r="D73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74">
+        <v>181035</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76">
+        <v>1221037</v>
+      </c>
+      <c r="D76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77">
+        <v>108889</v>
+      </c>
+      <c r="D77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78">
+        <v>9372610</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79">
+        <v>86600</v>
+      </c>
+      <c r="D79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80">
+        <v>330803</v>
+      </c>
+      <c r="D80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81">
+        <v>1141748</v>
+      </c>
+      <c r="D81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82">
+        <v>1030700</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83">
+        <v>765</v>
+      </c>
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84">
+        <v>30528</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85">
+        <v>756102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86">
+        <v>25713</v>
+      </c>
+      <c r="D86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87">
+        <v>801590</v>
+      </c>
+      <c r="D87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90">
+        <v>1104300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91">
+        <v>1628</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92">
+        <v>549</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93">
+        <v>3287590</v>
+      </c>
+      <c r="D93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94">
+        <v>8870</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95">
+        <v>505992</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96">
+        <v>2724900</v>
+      </c>
+      <c r="D96" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97">
+        <v>309500</v>
+      </c>
+      <c r="D97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98">
+        <v>83600</v>
+      </c>
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99">
+        <v>312679</v>
+      </c>
+      <c r="D99" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100">
+        <v>83534</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101">
+        <v>344</v>
+      </c>
+      <c r="D101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102">
+        <v>65610</v>
+      </c>
+      <c r="D102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103">
+        <v>143100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104">
+        <v>185180</v>
+      </c>
+      <c r="D104" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105">
+        <v>1759540</v>
+      </c>
+      <c r="D105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106">
+        <v>27750</v>
+      </c>
+      <c r="D106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107">
+        <v>61</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108">
+        <v>747</v>
+      </c>
+      <c r="D108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109">
+        <v>151</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110">
+        <v>69700</v>
+      </c>
+      <c r="D110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111">
+        <v>117600</v>
+      </c>
+      <c r="D111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112">
+        <v>945087</v>
+      </c>
+      <c r="D112" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>300</v>
+      </c>
+      <c r="B113" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113">
+        <v>78865</v>
+      </c>
+      <c r="D113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114">
+        <v>10908</v>
+      </c>
+      <c r="D114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>305</v>
+      </c>
+      <c r="B115" t="s">
+        <v>306</v>
+      </c>
+      <c r="C115">
+        <v>38394</v>
+      </c>
+      <c r="D115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116">
+        <v>1002450</v>
+      </c>
+      <c r="D116" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117">
+        <v>261</v>
+      </c>
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118">
+        <v>331212</v>
+      </c>
+      <c r="D118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119">
+        <v>181</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120">
+        <v>83871</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121">
+        <v>462840</v>
+      </c>
+      <c r="D121" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>323</v>
+      </c>
+      <c r="B122" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122">
+        <v>13943</v>
+      </c>
+      <c r="D122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>326</v>
+      </c>
+      <c r="B123" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123">
+        <v>56594</v>
+      </c>
+      <c r="D123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>329</v>
+      </c>
+      <c r="B124" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124">
+        <v>20273</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>331</v>
+      </c>
+      <c r="B125" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125">
+        <v>447400</v>
+      </c>
+      <c r="D125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" t="s">
+        <v>335</v>
+      </c>
+      <c r="C126">
+        <v>338424</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>336</v>
+      </c>
+      <c r="B127" t="s">
+        <v>337</v>
+      </c>
+      <c r="C127">
+        <v>214969</v>
+      </c>
+      <c r="D127" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128">
+        <v>1580</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>341</v>
+      </c>
+      <c r="B129" t="s">
+        <v>341</v>
+      </c>
+      <c r="C129">
+        <v>2.02</v>
+      </c>
+      <c r="D129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" t="s">
+        <v>343</v>
+      </c>
+      <c r="C130">
+        <v>49037</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131">
+        <v>527968</v>
+      </c>
+      <c r="D131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132">
+        <v>118484</v>
+      </c>
+      <c r="D132" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133">
+        <v>10689</v>
+      </c>
+      <c r="D133" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" t="s">
+        <v>354</v>
+      </c>
+      <c r="C134">
+        <v>75417</v>
+      </c>
+      <c r="D134" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" t="s">
+        <v>357</v>
+      </c>
+      <c r="C135">
+        <v>572</v>
+      </c>
+      <c r="D135" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>359</v>
+      </c>
+      <c r="B136" t="s">
+        <v>360</v>
+      </c>
+      <c r="C136">
+        <v>70273</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>361</v>
+      </c>
+      <c r="B137" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137">
+        <v>100210</v>
+      </c>
+      <c r="D137" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>364</v>
+      </c>
+      <c r="B138" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138">
+        <v>131990</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>366</v>
+      </c>
+      <c r="B139" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139">
+        <v>78</v>
+      </c>
+      <c r="D139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>369</v>
+      </c>
+      <c r="B140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140">
+        <v>881912</v>
+      </c>
+      <c r="D140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141">
+        <v>47</v>
+      </c>
+      <c r="D141" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>375</v>
+      </c>
+      <c r="B142" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142">
+        <v>29743</v>
+      </c>
+      <c r="D142" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143">
+        <v>316</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>380</v>
+      </c>
+      <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144">
+        <v>488100</v>
+      </c>
+      <c r="D144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" t="s">
+        <v>384</v>
+      </c>
+      <c r="C145">
+        <v>48671</v>
+      </c>
+      <c r="D145" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>386</v>
+      </c>
+      <c r="B146" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146">
+        <v>28896</v>
+      </c>
+      <c r="D146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" t="s">
+        <v>390</v>
+      </c>
+      <c r="C147">
+        <v>12189</v>
+      </c>
+      <c r="D147" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>392</v>
+      </c>
+      <c r="B148" t="s">
+        <v>393</v>
+      </c>
+      <c r="C148">
+        <v>587041</v>
+      </c>
+      <c r="D148" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149" t="s">
+        <v>396</v>
+      </c>
+      <c r="C149">
+        <v>236800</v>
+      </c>
+      <c r="D149" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>398</v>
+      </c>
+      <c r="B150" t="s">
+        <v>399</v>
+      </c>
+      <c r="C150">
+        <v>236</v>
+      </c>
+      <c r="D150" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151">
+        <v>53</v>
+      </c>
+      <c r="D151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>403</v>
+      </c>
+      <c r="B152" t="s">
+        <v>404</v>
+      </c>
+      <c r="C152">
+        <v>1564110</v>
+      </c>
+      <c r="D152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" t="s">
+        <v>407</v>
+      </c>
+      <c r="C153">
+        <v>1128</v>
+      </c>
+      <c r="D153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>408</v>
+      </c>
+      <c r="B154" t="s">
+        <v>409</v>
+      </c>
+      <c r="C154">
+        <v>551695</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>410</v>
+      </c>
+      <c r="B155" t="s">
+        <v>411</v>
+      </c>
+      <c r="C155">
+        <v>622984</v>
+      </c>
+      <c r="D155" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" t="s">
+        <v>413</v>
+      </c>
+      <c r="C156">
+        <v>91</v>
+      </c>
+      <c r="D156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" t="s">
+        <v>415</v>
+      </c>
+      <c r="C157">
+        <v>17364</v>
+      </c>
+      <c r="D157" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>417</v>
+      </c>
+      <c r="B158" t="s">
+        <v>418</v>
+      </c>
+      <c r="C158">
+        <v>242900</v>
+      </c>
+      <c r="D158" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" t="s">
+        <v>421</v>
+      </c>
+      <c r="C159">
+        <v>103000</v>
+      </c>
+      <c r="D159" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>423</v>
+      </c>
+      <c r="B160" t="s">
+        <v>424</v>
+      </c>
+      <c r="C160">
+        <v>147181</v>
+      </c>
+      <c r="D160" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>426</v>
+      </c>
+      <c r="B161" t="s">
+        <v>427</v>
+      </c>
+      <c r="C161">
+        <v>238533</v>
+      </c>
+      <c r="D161" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>429</v>
+      </c>
+      <c r="B162" t="s">
+        <v>430</v>
+      </c>
+      <c r="C162">
+        <v>438317</v>
+      </c>
+      <c r="D162" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>432</v>
+      </c>
+      <c r="B163" t="s">
+        <v>433</v>
+      </c>
+      <c r="C163">
+        <v>513120</v>
+      </c>
+      <c r="D163" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>435</v>
+      </c>
+      <c r="B164" t="s">
+        <v>436</v>
+      </c>
+      <c r="C164">
+        <v>43094</v>
+      </c>
+      <c r="D164" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>438</v>
+      </c>
+      <c r="B165" t="s">
+        <v>439</v>
+      </c>
+      <c r="C165">
+        <v>88361</v>
+      </c>
+      <c r="D165" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>441</v>
+      </c>
+      <c r="B166" t="s">
+        <v>442</v>
+      </c>
+      <c r="C166">
+        <v>241550</v>
+      </c>
+      <c r="D166" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>444</v>
+      </c>
+      <c r="B167" t="s">
+        <v>445</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>446</v>
+      </c>
+      <c r="B168" t="s">
+        <v>447</v>
+      </c>
+      <c r="C168">
+        <v>13812</v>
+      </c>
+      <c r="D168" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>448</v>
+      </c>
+      <c r="B169" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169">
+        <v>2149690</v>
+      </c>
+      <c r="D169" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" t="s">
+        <v>452</v>
+      </c>
+      <c r="C170">
+        <v>89342</v>
+      </c>
+      <c r="D170" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>454</v>
+      </c>
+      <c r="B171" t="s">
+        <v>455</v>
+      </c>
+      <c r="C171">
+        <v>163820</v>
+      </c>
+      <c r="D171" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>457</v>
+      </c>
+      <c r="B172" t="s">
+        <v>458</v>
+      </c>
+      <c r="C172">
+        <v>270467</v>
+      </c>
+      <c r="D172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173" t="s">
+        <v>460</v>
+      </c>
+      <c r="C173">
+        <v>580367</v>
+      </c>
+      <c r="D173" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>462</v>
+      </c>
+      <c r="B174" t="s">
+        <v>463</v>
+      </c>
+      <c r="C174">
+        <v>1964375</v>
+      </c>
+      <c r="D174" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>465</v>
+      </c>
+      <c r="B175" t="s">
+        <v>466</v>
+      </c>
+      <c r="C175">
+        <v>51209</v>
+      </c>
+      <c r="D175" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>468</v>
+      </c>
+      <c r="B176" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176">
+        <v>389</v>
+      </c>
+      <c r="D176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>470</v>
+      </c>
+      <c r="B177" t="s">
+        <v>471</v>
+      </c>
+      <c r="C177">
+        <v>452</v>
+      </c>
+      <c r="D177" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>473</v>
+      </c>
+      <c r="B178" t="s">
+        <v>474</v>
+      </c>
+      <c r="C178">
+        <v>242</v>
+      </c>
+      <c r="D178" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" t="s">
+        <v>476</v>
+      </c>
+      <c r="C179">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>477</v>
+      </c>
+      <c r="B180" t="s">
+        <v>478</v>
+      </c>
+      <c r="C180">
+        <v>110879</v>
+      </c>
+      <c r="D180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>480</v>
+      </c>
+      <c r="B181" t="s">
+        <v>481</v>
+      </c>
+      <c r="C181">
+        <v>12173</v>
+      </c>
+      <c r="D181" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>483</v>
+      </c>
+      <c r="B182" t="s">
+        <v>484</v>
+      </c>
+      <c r="C182">
+        <v>64559</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>485</v>
+      </c>
+      <c r="B183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183">
+        <v>2511</v>
+      </c>
+      <c r="D183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>487</v>
+      </c>
+      <c r="B184" t="s">
+        <v>488</v>
+      </c>
+      <c r="C184">
+        <v>245857</v>
+      </c>
+      <c r="D184" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>490</v>
+      </c>
+      <c r="B185" t="s">
+        <v>491</v>
+      </c>
+      <c r="C185">
+        <v>10452</v>
+      </c>
+      <c r="D185" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>493</v>
+      </c>
+      <c r="B186" t="s">
+        <v>493</v>
+      </c>
+      <c r="C186">
+        <v>2586</v>
+      </c>
+      <c r="D186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>494</v>
+      </c>
+      <c r="B187" t="s">
+        <v>495</v>
+      </c>
+      <c r="C187">
+        <v>2040</v>
+      </c>
+      <c r="D187" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>497</v>
+      </c>
+      <c r="B188" t="s">
+        <v>498</v>
+      </c>
+      <c r="C188">
+        <v>45227</v>
+      </c>
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>499</v>
+      </c>
+      <c r="B189" t="s">
+        <v>500</v>
+      </c>
+      <c r="C189">
+        <v>323802</v>
+      </c>
+      <c r="D189" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>502</v>
+      </c>
+      <c r="B190" t="s">
+        <v>503</v>
+      </c>
+      <c r="C190">
+        <v>1862</v>
+      </c>
+      <c r="D190" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>505</v>
+      </c>
+      <c r="B191" t="s">
+        <v>506</v>
+      </c>
+      <c r="C191">
+        <v>916445</v>
+      </c>
+      <c r="D191" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>508</v>
+      </c>
+      <c r="B192" t="s">
+        <v>509</v>
+      </c>
+      <c r="C192">
+        <v>1648195</v>
+      </c>
+      <c r="D192" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>511</v>
+      </c>
+      <c r="B193" t="s">
+        <v>512</v>
+      </c>
+      <c r="C193">
+        <v>450295</v>
+      </c>
+      <c r="D193" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>514</v>
+      </c>
+      <c r="B194" t="s">
+        <v>515</v>
+      </c>
+      <c r="C194">
+        <v>18272</v>
+      </c>
+      <c r="D194" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>517</v>
+      </c>
+      <c r="B195" t="s">
+        <v>518</v>
+      </c>
+      <c r="C195">
+        <v>342353</v>
+      </c>
+      <c r="D195" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>520</v>
+      </c>
+      <c r="B196" t="s">
+        <v>521</v>
+      </c>
+      <c r="C196">
+        <v>1104</v>
+      </c>
+      <c r="D196" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>523</v>
+      </c>
+      <c r="B197" t="s">
+        <v>524</v>
+      </c>
+      <c r="C197">
+        <v>181034</v>
+      </c>
+      <c r="D197" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>526</v>
+      </c>
+      <c r="B198" t="s">
+        <v>121</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+      <c r="D198" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>528</v>
+      </c>
+      <c r="B199" t="s">
+        <v>529</v>
+      </c>
+      <c r="C199">
+        <v>41284</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>530</v>
+      </c>
+      <c r="B200" t="s">
+        <v>531</v>
+      </c>
+      <c r="C200">
+        <v>5130</v>
+      </c>
+      <c r="D200" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>533</v>
+      </c>
+      <c r="B201" t="s">
+        <v>534</v>
+      </c>
+      <c r="C201">
+        <v>26338</v>
+      </c>
+      <c r="D201" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>536</v>
+      </c>
+      <c r="B202" t="s">
+        <v>537</v>
+      </c>
+      <c r="C202">
+        <v>28748</v>
+      </c>
+      <c r="D202" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>539</v>
+      </c>
+      <c r="B203" t="s">
+        <v>540</v>
+      </c>
+      <c r="C203">
+        <v>36125</v>
+      </c>
+      <c r="D203" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>541</v>
+      </c>
+      <c r="B204" t="s">
+        <v>542</v>
+      </c>
+      <c r="C204">
+        <v>322463</v>
+      </c>
+      <c r="D204" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>543</v>
+      </c>
+      <c r="B205" t="s">
+        <v>544</v>
+      </c>
+      <c r="C205">
+        <v>120538</v>
+      </c>
+      <c r="D205" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>546</v>
+      </c>
+      <c r="B206" t="s">
+        <v>121</v>
+      </c>
+      <c r="C206">
+        <v>49</v>
+      </c>
+      <c r="D206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>547</v>
+      </c>
+      <c r="B207" t="s">
+        <v>548</v>
+      </c>
+      <c r="C207">
+        <v>468</v>
+      </c>
+      <c r="D207" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>549</v>
+      </c>
+      <c r="B208" t="s">
+        <v>550</v>
+      </c>
+      <c r="C208">
+        <v>300</v>
+      </c>
+      <c r="D208" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>552</v>
+      </c>
+      <c r="B209" t="s">
+        <v>553</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+      <c r="D209" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>554</v>
+      </c>
+      <c r="B210" t="s">
+        <v>554</v>
+      </c>
+      <c r="C210">
+        <v>710</v>
+      </c>
+      <c r="D210" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>556</v>
+      </c>
+      <c r="B211" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211">
+        <v>390757</v>
+      </c>
+      <c r="D211" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>559</v>
+      </c>
+      <c r="B212" t="s">
+        <v>560</v>
+      </c>
+      <c r="C212">
+        <v>347</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>561</v>
+      </c>
+      <c r="B213" t="s">
+        <v>562</v>
+      </c>
+      <c r="C213">
+        <v>751</v>
+      </c>
+      <c r="D213" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>563</v>
+      </c>
+      <c r="B214" t="s">
+        <v>564</v>
+      </c>
+      <c r="C214">
+        <v>446550</v>
+      </c>
+      <c r="D214" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>566</v>
+      </c>
+      <c r="B215" t="s">
+        <v>567</v>
+      </c>
+      <c r="C215">
+        <v>374</v>
+      </c>
+      <c r="D215" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>568</v>
+      </c>
+      <c r="B216" t="s">
+        <v>569</v>
+      </c>
+      <c r="C216">
+        <v>11586</v>
+      </c>
+      <c r="D216" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>571</v>
+      </c>
+      <c r="B217" t="s">
+        <v>572</v>
+      </c>
+      <c r="C217">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>574</v>
+      </c>
+      <c r="B218" t="s">
+        <v>575</v>
+      </c>
+      <c r="C218">
+        <v>51100</v>
+      </c>
+      <c r="D218" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>577</v>
+      </c>
+      <c r="B219" t="s">
+        <v>578</v>
+      </c>
+      <c r="C219">
+        <v>260</v>
+      </c>
+      <c r="D219" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>579</v>
+      </c>
+      <c r="B220" t="s">
+        <v>580</v>
+      </c>
+      <c r="C220">
+        <v>444</v>
+      </c>
+      <c r="D220" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>581</v>
+      </c>
+      <c r="B221" t="s">
+        <v>582</v>
+      </c>
+      <c r="C221">
+        <v>4033</v>
+      </c>
+      <c r="D221" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>584</v>
+      </c>
+      <c r="B222" t="s">
+        <v>585</v>
+      </c>
+      <c r="C222">
+        <v>41850</v>
+      </c>
+      <c r="D222" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>586</v>
+      </c>
+      <c r="B223" t="s">
+        <v>587</v>
+      </c>
+      <c r="C223">
+        <v>238391</v>
+      </c>
+      <c r="D223" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>589</v>
+      </c>
+      <c r="B224" t="s">
+        <v>590</v>
+      </c>
+      <c r="C224">
+        <v>71740</v>
+      </c>
+      <c r="D224" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>592</v>
+      </c>
+      <c r="B225" t="s">
+        <v>593</v>
+      </c>
+      <c r="C225">
+        <v>130373</v>
+      </c>
+      <c r="D225" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>595</v>
+      </c>
+      <c r="B226" t="s">
+        <v>596</v>
+      </c>
+      <c r="C226">
+        <v>2381741</v>
+      </c>
+      <c r="D226" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>598</v>
+      </c>
+      <c r="B227" t="s">
+        <v>236</v>
+      </c>
+      <c r="C227">
+        <v>10991</v>
+      </c>
+      <c r="D227" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>600</v>
+      </c>
+      <c r="B228" t="s">
+        <v>601</v>
+      </c>
+      <c r="C228">
+        <v>56785</v>
+      </c>
+      <c r="D228" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>602</v>
+      </c>
+      <c r="B229" t="s">
+        <v>602</v>
+      </c>
+      <c r="C229">
+        <v>0.44</v>
+      </c>
+      <c r="D229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>603</v>
+      </c>
+      <c r="B230" t="s">
+        <v>604</v>
+      </c>
+      <c r="C230">
+        <v>116</v>
+      </c>
+      <c r="D230" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>606</v>
+      </c>
+      <c r="B231" t="s">
+        <v>607</v>
+      </c>
+      <c r="C231">
+        <v>276841</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>608</v>
+      </c>
+      <c r="B232" t="s">
+        <v>609</v>
+      </c>
+      <c r="C232">
+        <v>2842</v>
+      </c>
+      <c r="D232" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>611</v>
+      </c>
+      <c r="B233" t="s">
+        <v>612</v>
+      </c>
+      <c r="C233">
+        <v>60</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>613</v>
+      </c>
+      <c r="B234" t="s">
+        <v>614</v>
+      </c>
+      <c r="C234">
+        <v>923768</v>
+      </c>
+      <c r="D234" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>616</v>
+      </c>
+      <c r="B235" t="s">
+        <v>617</v>
+      </c>
+      <c r="C235">
+        <v>752612</v>
+      </c>
+      <c r="D235" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>619</v>
+      </c>
+      <c r="B236" t="s">
+        <v>620</v>
+      </c>
+      <c r="C236">
+        <v>7747</v>
+      </c>
+      <c r="D236" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>621</v>
+      </c>
+      <c r="B237" t="s">
+        <v>622</v>
+      </c>
+      <c r="C237">
+        <v>1284000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>623</v>
+      </c>
+      <c r="B238" t="s">
+        <v>624</v>
+      </c>
+      <c r="C238">
+        <v>-1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>625</v>
+      </c>
+      <c r="B239" t="s">
+        <v>626</v>
+      </c>
+      <c r="C239">
+        <v>65300</v>
+      </c>
+      <c r="D239" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>627</v>
+      </c>
+      <c r="B240" t="s">
+        <v>628</v>
+      </c>
+      <c r="C240">
+        <v>603500</v>
+      </c>
+      <c r="D240" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>630</v>
+      </c>
+      <c r="B241" t="s">
+        <v>631</v>
+      </c>
+      <c r="C241">
+        <v>9706961</v>
+      </c>
+      <c r="D241" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>633</v>
+      </c>
+      <c r="B242" t="s">
+        <v>634</v>
+      </c>
+      <c r="C242">
+        <v>34.2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>635</v>
+      </c>
+      <c r="B243" t="s">
+        <v>636</v>
+      </c>
+      <c r="C243">
+        <v>464</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>637</v>
+      </c>
+      <c r="B244" t="s">
+        <v>638</v>
+      </c>
+      <c r="C244">
+        <v>6220</v>
+      </c>
+      <c r="D244" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>640</v>
+      </c>
+      <c r="B245" t="s">
+        <v>641</v>
+      </c>
+      <c r="C245">
+        <v>2166086</v>
+      </c>
+      <c r="D245" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>642</v>
+      </c>
+      <c r="B246" t="s">
+        <v>643</v>
+      </c>
+      <c r="C246">
+        <v>619745</v>
+      </c>
+      <c r="D246" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>645</v>
+      </c>
+      <c r="B247" t="s">
+        <v>646</v>
+      </c>
+      <c r="C247">
+        <v>147570</v>
+      </c>
+      <c r="D247" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>648</v>
+      </c>
+      <c r="B248" t="s">
+        <v>649</v>
+      </c>
+      <c r="C248">
+        <v>28051</v>
+      </c>
+      <c r="D248" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>650</v>
+      </c>
+      <c r="B249" t="s">
+        <v>651</v>
+      </c>
+      <c r="C249">
+        <v>825615</v>
+      </c>
+      <c r="D249" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>653</v>
+      </c>
+      <c r="B250" t="s">
+        <v>654</v>
+      </c>
+      <c r="C250">
+        <v>14874</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>655</v>
+      </c>
+      <c r="B251" t="s">
+        <v>656</v>
+      </c>
+      <c r="C251">
+        <v>5765</v>
+      </c>
+      <c r="D251" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>658</v>
+      </c>
+      <c r="B252" t="s">
+        <v>659</v>
+      </c>
+      <c r="C252">
+        <v>811</v>
+      </c>
+      <c r="D252" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/countries_list.xlsx
+++ b/countries_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="910">
   <si>
     <t>Merged Range</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Kuwait City</t>
   </si>
   <si>
+    <t>17.818,00</t>
+  </si>
+  <si>
     <t>KWD</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Ngerulmud</t>
   </si>
   <si>
+    <t>459,00</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>Vaduz</t>
   </si>
   <si>
+    <t>160,00</t>
+  </si>
+  <si>
     <t>CHF</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>Chișinău</t>
   </si>
   <si>
+    <t>33.846,00</t>
+  </si>
+  <si>
     <t>MDL</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>Luanda</t>
   </si>
   <si>
+    <t>1.246.700,00</t>
+  </si>
+  <si>
     <t>AOA</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t>Sucre</t>
   </si>
   <si>
+    <t>1.098.581,00</t>
+  </si>
+  <si>
     <t>BOB</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t>Funafuti</t>
   </si>
   <si>
+    <t>26,00</t>
+  </si>
+  <si>
     <t>AUD,TVD</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t>Lima</t>
   </si>
   <si>
+    <t>1.285.216,00</t>
+  </si>
+  <si>
     <t>PEN</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>Nouméa</t>
   </si>
   <si>
+    <t>18.575,00</t>
+  </si>
+  <si>
     <t>XPF</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>Berlin</t>
   </si>
   <si>
+    <t>357.114,00</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -130,6 +160,9 @@
     <t>Gaborone</t>
   </si>
   <si>
+    <t>582.000,00</t>
+  </si>
+  <si>
     <t>BWP</t>
   </si>
   <si>
@@ -139,6 +172,9 @@
     <t>Kabul</t>
   </si>
   <si>
+    <t>652.230,00</t>
+  </si>
+  <si>
     <t>AFN</t>
   </si>
   <si>
@@ -148,6 +184,9 @@
     <t>Budapest</t>
   </si>
   <si>
+    <t>93.028,00</t>
+  </si>
+  <si>
     <t>HUF</t>
   </si>
   <si>
@@ -157,6 +196,9 @@
     <t>Ouagadougou</t>
   </si>
   <si>
+    <t>272.967,00</t>
+  </si>
+  <si>
     <t>XOF</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>Ottawa</t>
   </si>
   <si>
+    <t>9.984.670,00</t>
+  </si>
+  <si>
     <t>CAD</t>
   </si>
   <si>
@@ -175,12 +220,18 @@
     <t>Gustavia</t>
   </si>
   <si>
+    <t>21,00</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Jakarta</t>
   </si>
   <si>
+    <t>1.904.569,00</t>
+  </si>
+  <si>
     <t>IDR</t>
   </si>
   <si>
@@ -190,6 +241,9 @@
     <t>Taipei</t>
   </si>
   <si>
+    <t>36.193,00</t>
+  </si>
+  <si>
     <t>TWD</t>
   </si>
   <si>
@@ -199,6 +253,9 @@
     <t>Castries</t>
   </si>
   <si>
+    <t>616,00</t>
+  </si>
+  <si>
     <t>XCD</t>
   </si>
   <si>
@@ -208,6 +265,9 @@
     <t>Oranjestad</t>
   </si>
   <si>
+    <t>180,00</t>
+  </si>
+  <si>
     <t>AWG</t>
   </si>
   <si>
@@ -217,6 +277,9 @@
     <t>Libreville</t>
   </si>
   <si>
+    <t>267.668,00</t>
+  </si>
+  <si>
     <t>XAF</t>
   </si>
   <si>
@@ -226,6 +289,9 @@
     <t>King Edward Point</t>
   </si>
   <si>
+    <t>3.903,00</t>
+  </si>
+  <si>
     <t>SHP</t>
   </si>
   <si>
@@ -235,6 +301,9 @@
     <t>Monrovia</t>
   </si>
   <si>
+    <t>111.369,00</t>
+  </si>
+  <si>
     <t>LRD</t>
   </si>
   <si>
@@ -244,12 +313,18 @@
     <t>Cockburn Town</t>
   </si>
   <si>
+    <t>948,00</t>
+  </si>
+  <si>
     <t>Western Sahara</t>
   </si>
   <si>
     <t>El Aaiún</t>
   </si>
   <si>
+    <t>266.000,00</t>
+  </si>
+  <si>
     <t>DZD,MAD,MRU</t>
   </si>
   <si>
@@ -259,6 +334,9 @@
     <t>Ankara</t>
   </si>
   <si>
+    <t>783.562,00</t>
+  </si>
+  <si>
     <t>TRY</t>
   </si>
   <si>
@@ -268,24 +346,36 @@
     <t>Bamako</t>
   </si>
   <si>
+    <t>1.240.192,00</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>Porto-Novo</t>
   </si>
   <si>
+    <t>112.622,00</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
     <t>Nicosia</t>
   </si>
   <si>
+    <t>9.251,00</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
     <t>Mogadishu</t>
   </si>
   <si>
+    <t>637.657,00</t>
+  </si>
+  <si>
     <t>SOS</t>
   </si>
   <si>
@@ -295,12 +385,18 @@
     <t>Niamey</t>
   </si>
   <si>
+    <t>1.267.000,00</t>
+  </si>
+  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
     <t>Tórshavn</t>
   </si>
   <si>
+    <t>1.393,00</t>
+  </si>
+  <si>
     <t>DKK,FOK</t>
   </si>
   <si>
@@ -310,18 +406,27 @@
     <t>Lisbon</t>
   </si>
   <si>
+    <t>92.090,00</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
     <t>Dakar</t>
   </si>
   <si>
+    <t>196.722,00</t>
+  </si>
+  <si>
     <t>Cuba</t>
   </si>
   <si>
     <t>Havana</t>
   </si>
   <si>
+    <t>109.884,00</t>
+  </si>
+  <si>
     <t>CUC,CUP</t>
   </si>
   <si>
@@ -331,6 +436,9 @@
     <t>Minsk</t>
   </si>
   <si>
+    <t>207.600,00</t>
+  </si>
+  <si>
     <t>BYN</t>
   </si>
   <si>
@@ -340,6 +448,9 @@
     <t>Bridgetown</t>
   </si>
   <si>
+    <t>430,00</t>
+  </si>
+  <si>
     <t>BBD</t>
   </si>
   <si>
@@ -349,6 +460,9 @@
     <t>Tunis</t>
   </si>
   <si>
+    <t>163.610,00</t>
+  </si>
+  <si>
     <t>TND</t>
   </si>
   <si>
@@ -358,6 +472,9 @@
     <t>Jerusalem</t>
   </si>
   <si>
+    <t>20.770,00</t>
+  </si>
+  <si>
     <t>ILS</t>
   </si>
   <si>
@@ -367,12 +484,18 @@
     <t>Rome</t>
   </si>
   <si>
+    <t>301.336,00</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
     <t>Naypyidaw</t>
   </si>
   <si>
+    <t>676.578,00</t>
+  </si>
+  <si>
     <t>MMK</t>
   </si>
   <si>
@@ -382,21 +505,33 @@
     <t>-</t>
   </si>
   <si>
+    <t>14.000.000,00</t>
+  </si>
+  <si>
     <t>Micronesia</t>
   </si>
   <si>
     <t>Palikir</t>
   </si>
   <si>
+    <t>702,00</t>
+  </si>
+  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
     <t>Mata-Utu</t>
   </si>
   <si>
+    <t>142,00</t>
+  </si>
+  <si>
     <t>Djibouti</t>
   </si>
   <si>
+    <t>23.200,00</t>
+  </si>
+  <si>
     <t>DJF</t>
   </si>
   <si>
@@ -406,9 +541,15 @@
     <t>Brazzaville</t>
   </si>
   <si>
+    <t>342.000,00</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
+    <t>6,00</t>
+  </si>
+  <si>
     <t>GIP</t>
   </si>
   <si>
@@ -418,6 +559,9 @@
     <t>Kinshasa</t>
   </si>
   <si>
+    <t>2.344.858,00</t>
+  </si>
+  <si>
     <t>CDF</t>
   </si>
   <si>
@@ -427,6 +571,9 @@
     <t>Belmopan</t>
   </si>
   <si>
+    <t>22.966,00</t>
+  </si>
+  <si>
     <t>BZD</t>
   </si>
   <si>
@@ -436,6 +583,9 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>54,00</t>
+  </si>
+  <si>
     <t>BMD</t>
   </si>
   <si>
@@ -445,6 +595,9 @@
     <t>Canberra</t>
   </si>
   <si>
+    <t>7.692.024,00</t>
+  </si>
+  <si>
     <t>AUD</t>
   </si>
   <si>
@@ -454,6 +607,9 @@
     <t>Jamestown</t>
   </si>
   <si>
+    <t>394,00</t>
+  </si>
+  <si>
     <t>GBP,SHP</t>
   </si>
   <si>
@@ -463,12 +619,18 @@
     <t>Yaoundé</t>
   </si>
   <si>
+    <t>475.442,00</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>Moscow</t>
   </si>
   <si>
+    <t>17.098.242,00</t>
+  </si>
+  <si>
     <t>RUB</t>
   </si>
   <si>
@@ -478,12 +640,18 @@
     <t>Saint John's</t>
   </si>
   <si>
+    <t>442,00</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Tokyo</t>
   </si>
   <si>
+    <t>377.930,00</t>
+  </si>
+  <si>
     <t>JPY</t>
   </si>
   <si>
@@ -493,6 +661,9 @@
     <t>George Town</t>
   </si>
   <si>
+    <t>264,00</t>
+  </si>
+  <si>
     <t>KYD</t>
   </si>
   <si>
@@ -502,24 +673,36 @@
     <t>Kralendijk</t>
   </si>
   <si>
+    <t>328,00</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Tegucigalpa</t>
   </si>
   <si>
+    <t>112.492,00</t>
+  </si>
+  <si>
     <t>HNL</t>
   </si>
   <si>
     <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
+    <t>412,00</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>Gitega</t>
   </si>
   <si>
+    <t>27.834,00</t>
+  </si>
+  <si>
     <t>BIF</t>
   </si>
   <si>
@@ -529,6 +712,9 @@
     <t>Asunción</t>
   </si>
   <si>
+    <t>406.752,00</t>
+  </si>
+  <si>
     <t>PYG</t>
   </si>
   <si>
@@ -538,6 +724,9 @@
     <t>Buenos Aires</t>
   </si>
   <si>
+    <t>2.780.400,00</t>
+  </si>
+  <si>
     <t>ARS</t>
   </si>
   <si>
@@ -547,12 +736,18 @@
     <t>Papeetē</t>
   </si>
   <si>
+    <t>4.167,00</t>
+  </si>
+  <si>
     <t>São Tomé and Príncipe</t>
   </si>
   <si>
     <t>São Tomé</t>
   </si>
   <si>
+    <t>964,00</t>
+  </si>
+  <si>
     <t>STN</t>
   </si>
   <si>
@@ -562,6 +757,9 @@
     <t>Maseru</t>
   </si>
   <si>
+    <t>30.355,00</t>
+  </si>
+  <si>
     <t>LSL,ZAR</t>
   </si>
   <si>
@@ -571,6 +769,9 @@
     <t>Khartoum</t>
   </si>
   <si>
+    <t>1.886.068,00</t>
+  </si>
+  <si>
     <t>SDG</t>
   </si>
   <si>
@@ -580,18 +781,27 @@
     <t>San Salvador</t>
   </si>
   <si>
+    <t>21.041,00</t>
+  </si>
+  <si>
     <t>Christmas Island</t>
   </si>
   <si>
     <t>Flying Fish Cove</t>
   </si>
   <si>
+    <t>135,00</t>
+  </si>
+  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
     <t>Bishkek</t>
   </si>
   <si>
+    <t>199.951,00</t>
+  </si>
+  <si>
     <t>KGS</t>
   </si>
   <si>
@@ -601,6 +811,9 @@
     <t>Brasília</t>
   </si>
   <si>
+    <t>8.515.767,00</t>
+  </si>
+  <si>
     <t>BRL</t>
   </si>
   <si>
@@ -610,6 +823,9 @@
     <t>Phnom Penh</t>
   </si>
   <si>
+    <t>181.035,00</t>
+  </si>
+  <si>
     <t>KHR,USD</t>
   </si>
   <si>
@@ -619,12 +835,18 @@
     <t>Plymouth</t>
   </si>
   <si>
+    <t>102,00</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>Pretoria</t>
   </si>
   <si>
+    <t>1.221.037,00</t>
+  </si>
+  <si>
     <t>ZAR</t>
   </si>
   <si>
@@ -634,6 +856,9 @@
     <t>Guatemala City</t>
   </si>
   <si>
+    <t>108.889,00</t>
+  </si>
+  <si>
     <t>GTQ</t>
   </si>
   <si>
@@ -643,12 +868,18 @@
     <t>Washington, D.C.</t>
   </si>
   <si>
+    <t>9.372.610,00</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
     <t>Baku</t>
   </si>
   <si>
+    <t>86.600,00</t>
+  </si>
+  <si>
     <t>AZN</t>
   </si>
   <si>
@@ -658,6 +889,9 @@
     <t>Kuala Lumpur</t>
   </si>
   <si>
+    <t>330.803,00</t>
+  </si>
+  <si>
     <t>MYR</t>
   </si>
   <si>
@@ -667,6 +901,9 @@
     <t>Bogotá</t>
   </si>
   <si>
+    <t>1.141.748,00</t>
+  </si>
+  <si>
     <t>COP</t>
   </si>
   <si>
@@ -676,6 +913,9 @@
     <t>Nouakchott</t>
   </si>
   <si>
+    <t>1.030.700,00</t>
+  </si>
+  <si>
     <t>MRU</t>
   </si>
   <si>
@@ -685,6 +925,9 @@
     <t>Manama</t>
   </si>
   <si>
+    <t>765,00</t>
+  </si>
+  <si>
     <t>BHD</t>
   </si>
   <si>
@@ -694,12 +937,18 @@
     <t>Brussels</t>
   </si>
   <si>
+    <t>30.528,00</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
     <t>Santiago</t>
   </si>
   <si>
+    <t>756.102,00</t>
+  </si>
+  <si>
     <t>CLP</t>
   </si>
   <si>
@@ -709,6 +958,9 @@
     <t>Skopje</t>
   </si>
   <si>
+    <t>25.713,00</t>
+  </si>
+  <si>
     <t>MKD</t>
   </si>
   <si>
@@ -718,6 +970,9 @@
     <t>Maputo</t>
   </si>
   <si>
+    <t>801.590,00</t>
+  </si>
+  <si>
     <t>MZN</t>
   </si>
   <si>
@@ -727,18 +982,27 @@
     <t>Kingston</t>
   </si>
   <si>
+    <t>36,00</t>
+  </si>
+  <si>
     <t>American Samoa</t>
   </si>
   <si>
     <t>Pago Pago</t>
   </si>
   <si>
+    <t>199,00</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>Addis Ababa</t>
   </si>
   <si>
+    <t>1.104.300,00</t>
+  </si>
+  <si>
     <t>ETB</t>
   </si>
   <si>
@@ -748,18 +1012,27 @@
     <t>Basse-Terre</t>
   </si>
   <si>
+    <t>1.628,00</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>Hagåtña</t>
   </si>
   <si>
+    <t>549,00</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
     <t>New Delhi</t>
   </si>
   <si>
+    <t>3.287.590,00</t>
+  </si>
+  <si>
     <t>INR</t>
   </si>
   <si>
@@ -769,18 +1042,27 @@
     <t>San Juan</t>
   </si>
   <si>
+    <t>8.870,00</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>Madrid</t>
   </si>
   <si>
+    <t>505.992,00</t>
+  </si>
+  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
     <t>Nur-Sultan</t>
   </si>
   <si>
+    <t>2.724.900,00</t>
+  </si>
+  <si>
     <t>KZT</t>
   </si>
   <si>
@@ -790,6 +1072,9 @@
     <t>Muscat</t>
   </si>
   <si>
+    <t>309.500,00</t>
+  </si>
+  <si>
     <t>OMR</t>
   </si>
   <si>
@@ -799,6 +1084,9 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
+    <t>83.600,00</t>
+  </si>
+  <si>
     <t>AED</t>
   </si>
   <si>
@@ -808,6 +1096,9 @@
     <t>Warsaw</t>
   </si>
   <si>
+    <t>312.679,00</t>
+  </si>
+  <si>
     <t>PLN</t>
   </si>
   <si>
@@ -817,18 +1108,27 @@
     <t>Cayenne</t>
   </si>
   <si>
+    <t>83.534,00</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>St. George's</t>
   </si>
   <si>
+    <t>344,00</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Sri Jayawardenepura Kotte</t>
   </si>
   <si>
+    <t>65.610,00</t>
+  </si>
+  <si>
     <t>LKR</t>
   </si>
   <si>
@@ -838,6 +1138,9 @@
     <t>Dushanbe</t>
   </si>
   <si>
+    <t>143.100,00</t>
+  </si>
+  <si>
     <t>TJS</t>
   </si>
   <si>
@@ -847,6 +1150,9 @@
     <t>Damascus</t>
   </si>
   <si>
+    <t>185.180,00</t>
+  </si>
+  <si>
     <t>SYP</t>
   </si>
   <si>
@@ -856,6 +1162,9 @@
     <t>Tripoli</t>
   </si>
   <si>
+    <t>1.759.540,00</t>
+  </si>
+  <si>
     <t>LYD</t>
   </si>
   <si>
@@ -865,6 +1174,9 @@
     <t>Port-au-Prince</t>
   </si>
   <si>
+    <t>27.750,00</t>
+  </si>
+  <si>
     <t>HTG</t>
   </si>
   <si>
@@ -874,12 +1186,18 @@
     <t>City of San Marino</t>
   </si>
   <si>
+    <t>61,00</t>
+  </si>
+  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Nuku'alofa</t>
   </si>
   <si>
+    <t>747,00</t>
+  </si>
+  <si>
     <t>TOP</t>
   </si>
   <si>
@@ -889,12 +1207,18 @@
     <t>Road Town</t>
   </si>
   <si>
+    <t>151,00</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>Tbilisi</t>
   </si>
   <si>
+    <t>69.700,00</t>
+  </si>
+  <si>
     <t>GEL</t>
   </si>
   <si>
@@ -904,6 +1228,9 @@
     <t>Asmara</t>
   </si>
   <si>
+    <t>117.600,00</t>
+  </si>
+  <si>
     <t>ERN</t>
   </si>
   <si>
@@ -913,6 +1240,9 @@
     <t>Dodoma</t>
   </si>
   <si>
+    <t>945.087,00</t>
+  </si>
+  <si>
     <t>TZS</t>
   </si>
   <si>
@@ -922,6 +1252,9 @@
     <t>Prague</t>
   </si>
   <si>
+    <t>78.865,00</t>
+  </si>
+  <si>
     <t>CZK</t>
   </si>
   <si>
@@ -931,12 +1264,18 @@
     <t>Pristina</t>
   </si>
   <si>
+    <t>10.908,00</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>Thimphu</t>
   </si>
   <si>
+    <t>38.394,00</t>
+  </si>
+  <si>
     <t>BTN,INR</t>
   </si>
   <si>
@@ -946,6 +1285,9 @@
     <t>Cairo</t>
   </si>
   <si>
+    <t>1.002.450,00</t>
+  </si>
+  <si>
     <t>EGP</t>
   </si>
   <si>
@@ -955,12 +1297,18 @@
     <t>Basseterre</t>
   </si>
   <si>
+    <t>261,00</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Hanoi</t>
   </si>
   <si>
+    <t>331.212,00</t>
+  </si>
+  <si>
     <t>VND</t>
   </si>
   <si>
@@ -970,18 +1318,27 @@
     <t>Majuro</t>
   </si>
   <si>
+    <t>181,00</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>Vienna</t>
   </si>
   <si>
+    <t>83.871,00</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
     <t>Port Moresby</t>
   </si>
   <si>
+    <t>462.840,00</t>
+  </si>
+  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -991,6 +1348,9 @@
     <t>Nassau</t>
   </si>
   <si>
+    <t>13.943,00</t>
+  </si>
+  <si>
     <t>BSD,USD</t>
   </si>
   <si>
@@ -1000,6 +1360,9 @@
     <t>Zagreb</t>
   </si>
   <si>
+    <t>56.594,00</t>
+  </si>
+  <si>
     <t>HRK</t>
   </si>
   <si>
@@ -1009,12 +1372,18 @@
     <t>Ljubljana</t>
   </si>
   <si>
+    <t>20.273,00</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
     <t>Tashkent</t>
   </si>
   <si>
+    <t>447.400,00</t>
+  </si>
+  <si>
     <t>UZS</t>
   </si>
   <si>
@@ -1024,12 +1393,18 @@
     <t>Helsinki</t>
   </si>
   <si>
+    <t>338.424,00</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
+    <t>214.969,00</t>
+  </si>
+  <si>
     <t>GYD</t>
   </si>
   <si>
@@ -1039,21 +1414,33 @@
     <t>Mariehamn</t>
   </si>
   <si>
+    <t>1.580,00</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
+    <t>2,02</t>
+  </si>
+  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>Bratislava</t>
   </si>
   <si>
+    <t>49.037,00</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>Sana'a</t>
   </si>
   <si>
+    <t>527.968,00</t>
+  </si>
+  <si>
     <t>YER</t>
   </si>
   <si>
@@ -1063,6 +1450,9 @@
     <t>Lilongwe</t>
   </si>
   <si>
+    <t>118.484,00</t>
+  </si>
+  <si>
     <t>MWK</t>
   </si>
   <si>
@@ -1072,6 +1462,9 @@
     <t>Banjul</t>
   </si>
   <si>
+    <t>10.689,00</t>
+  </si>
+  <si>
     <t>GMD</t>
   </si>
   <si>
@@ -1081,6 +1474,9 @@
     <t>Panama City</t>
   </si>
   <si>
+    <t>75.417,00</t>
+  </si>
+  <si>
     <t>PAB,USD</t>
   </si>
   <si>
@@ -1090,6 +1486,9 @@
     <t>Douglas</t>
   </si>
   <si>
+    <t>572,00</t>
+  </si>
+  <si>
     <t>GBP,IMP</t>
   </si>
   <si>
@@ -1099,12 +1498,18 @@
     <t>Dublin</t>
   </si>
   <si>
+    <t>70.273,00</t>
+  </si>
+  <si>
     <t>South Korea</t>
   </si>
   <si>
     <t>Seoul</t>
   </si>
   <si>
+    <t>100.210,00</t>
+  </si>
+  <si>
     <t>KRW</t>
   </si>
   <si>
@@ -1114,12 +1519,18 @@
     <t>Athens</t>
   </si>
   <si>
+    <t>131.990,00</t>
+  </si>
+  <si>
     <t>Guernsey</t>
   </si>
   <si>
     <t>St. Peter Port</t>
   </si>
   <si>
+    <t>78,00</t>
+  </si>
+  <si>
     <t>GBP,GGP</t>
   </si>
   <si>
@@ -1129,6 +1540,9 @@
     <t>Islamabad</t>
   </si>
   <si>
+    <t>881.912,00</t>
+  </si>
+  <si>
     <t>PKR</t>
   </si>
   <si>
@@ -1138,6 +1552,9 @@
     <t>Adamstown</t>
   </si>
   <si>
+    <t>47,00</t>
+  </si>
+  <si>
     <t>NZD</t>
   </si>
   <si>
@@ -1147,6 +1564,9 @@
     <t>Yerevan</t>
   </si>
   <si>
+    <t>29.743,00</t>
+  </si>
+  <si>
     <t>AMD</t>
   </si>
   <si>
@@ -1156,12 +1576,18 @@
     <t>Valletta</t>
   </si>
   <si>
+    <t>316,00</t>
+  </si>
+  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>Ashgabat</t>
   </si>
   <si>
+    <t>488.100,00</t>
+  </si>
+  <si>
     <t>TMT</t>
   </si>
   <si>
@@ -1171,6 +1597,9 @@
     <t>Santo Domingo</t>
   </si>
   <si>
+    <t>48.671,00</t>
+  </si>
+  <si>
     <t>DOP</t>
   </si>
   <si>
@@ -1180,6 +1609,9 @@
     <t>Honiara</t>
   </si>
   <si>
+    <t>28.896,00</t>
+  </si>
+  <si>
     <t>SBD</t>
   </si>
   <si>
@@ -1189,6 +1621,9 @@
     <t>Port Vila</t>
   </si>
   <si>
+    <t>12.189,00</t>
+  </si>
+  <si>
     <t>VUV</t>
   </si>
   <si>
@@ -1198,6 +1633,9 @@
     <t>Antananarivo</t>
   </si>
   <si>
+    <t>587.041,00</t>
+  </si>
+  <si>
     <t>MGA</t>
   </si>
   <si>
@@ -1207,6 +1645,9 @@
     <t>Vientiane</t>
   </si>
   <si>
+    <t>236.800,00</t>
+  </si>
+  <si>
     <t>LAK</t>
   </si>
   <si>
@@ -1216,6 +1657,9 @@
     <t>Avarua</t>
   </si>
   <si>
+    <t>236,00</t>
+  </si>
+  <si>
     <t>CKD,NZD</t>
   </si>
   <si>
@@ -1225,12 +1669,18 @@
     <t>Marigot</t>
   </si>
   <si>
+    <t>53,00</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Ulan Bator</t>
   </si>
   <si>
+    <t>1.564.110,00</t>
+  </si>
+  <si>
     <t>MNT</t>
   </si>
   <si>
@@ -1240,30 +1690,45 @@
     <t>Fort-de-France</t>
   </si>
   <si>
+    <t>1.128,00</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
+    <t>551.695,00</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
     <t>Bangui</t>
   </si>
   <si>
+    <t>622.984,00</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
     <t>The Valley</t>
   </si>
   <si>
+    <t>91,00</t>
+  </si>
+  <si>
     <t>Eswatini</t>
   </si>
   <si>
     <t>Mbabane</t>
   </si>
   <si>
+    <t>17.364,00</t>
+  </si>
+  <si>
     <t>SZL,ZAR</t>
   </si>
   <si>
@@ -1273,6 +1738,9 @@
     <t>London</t>
   </si>
   <si>
+    <t>242.900,00</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -1282,6 +1750,9 @@
     <t>Reykjavik</t>
   </si>
   <si>
+    <t>103.000,00</t>
+  </si>
+  <si>
     <t>ISK</t>
   </si>
   <si>
@@ -1291,6 +1762,9 @@
     <t>Kathmandu</t>
   </si>
   <si>
+    <t>147.181,00</t>
+  </si>
+  <si>
     <t>NPR</t>
   </si>
   <si>
@@ -1300,6 +1774,9 @@
     <t>Accra</t>
   </si>
   <si>
+    <t>238.533,00</t>
+  </si>
+  <si>
     <t>GHS</t>
   </si>
   <si>
@@ -1309,6 +1786,9 @@
     <t>Baghdad</t>
   </si>
   <si>
+    <t>438.317,00</t>
+  </si>
+  <si>
     <t>IQD</t>
   </si>
   <si>
@@ -1318,6 +1798,9 @@
     <t>Bangkok</t>
   </si>
   <si>
+    <t>513.120,00</t>
+  </si>
+  <si>
     <t>THB</t>
   </si>
   <si>
@@ -1327,6 +1810,9 @@
     <t>Copenhagen</t>
   </si>
   <si>
+    <t>43.094,00</t>
+  </si>
+  <si>
     <t>DKK</t>
   </si>
   <si>
@@ -1336,6 +1822,9 @@
     <t>Belgrade</t>
   </si>
   <si>
+    <t>88.361,00</t>
+  </si>
+  <si>
     <t>RSD</t>
   </si>
   <si>
@@ -1345,6 +1834,9 @@
     <t>Kampala</t>
   </si>
   <si>
+    <t>241.550,00</t>
+  </si>
+  <si>
     <t>UGX</t>
   </si>
   <si>
@@ -1354,18 +1846,27 @@
     <t>West Island</t>
   </si>
   <si>
+    <t>14,00</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
     <t>Podgorica</t>
   </si>
   <si>
+    <t>13.812,00</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Riyadh</t>
   </si>
   <si>
+    <t>2.149.690,00</t>
+  </si>
+  <si>
     <t>SAR</t>
   </si>
   <si>
@@ -1375,6 +1876,9 @@
     <t>Amman</t>
   </si>
   <si>
+    <t>89.342,00</t>
+  </si>
+  <si>
     <t>JOD</t>
   </si>
   <si>
@@ -1384,6 +1888,9 @@
     <t>Paramaribo</t>
   </si>
   <si>
+    <t>163.820,00</t>
+  </si>
+  <si>
     <t>SRD</t>
   </si>
   <si>
@@ -1393,12 +1900,18 @@
     <t>Wellington</t>
   </si>
   <si>
+    <t>270.467,00</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>Nairobi</t>
   </si>
   <si>
+    <t>580.367,00</t>
+  </si>
+  <si>
     <t>KES</t>
   </si>
   <si>
@@ -1408,6 +1921,9 @@
     <t>Mexico City</t>
   </si>
   <si>
+    <t>1.964.375,00</t>
+  </si>
+  <si>
     <t>MXN</t>
   </si>
   <si>
@@ -1417,6 +1933,9 @@
     <t>Sarajevo</t>
   </si>
   <si>
+    <t>51.209,00</t>
+  </si>
+  <si>
     <t>BAM</t>
   </si>
   <si>
@@ -1426,12 +1945,18 @@
     <t>Kingstown</t>
   </si>
   <si>
+    <t>389,00</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
     <t>Victoria</t>
   </si>
   <si>
+    <t>452,00</t>
+  </si>
+  <si>
     <t>SCR</t>
   </si>
   <si>
@@ -1441,18 +1966,27 @@
     <t>Saint-Pierre</t>
   </si>
   <si>
+    <t>242,00</t>
+  </si>
+  <si>
     <t>Tokelau</t>
   </si>
   <si>
     <t>Fakaofo</t>
   </si>
   <si>
+    <t>12,00</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>Sofia</t>
   </si>
   <si>
+    <t>110.879,00</t>
+  </si>
+  <si>
     <t>BGN</t>
   </si>
   <si>
@@ -1462,6 +1996,9 @@
     <t>Stanley</t>
   </si>
   <si>
+    <t>12.173,00</t>
+  </si>
+  <si>
     <t>FKP</t>
   </si>
   <si>
@@ -1471,18 +2008,27 @@
     <t>Riga</t>
   </si>
   <si>
+    <t>64.559,00</t>
+  </si>
+  <si>
     <t>Réunion</t>
   </si>
   <si>
     <t>Saint-Denis</t>
   </si>
   <si>
+    <t>2.511,00</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
     <t>Conakry</t>
   </si>
   <si>
+    <t>245.857,00</t>
+  </si>
+  <si>
     <t>GNF</t>
   </si>
   <si>
@@ -1492,18 +2038,27 @@
     <t>Beirut</t>
   </si>
   <si>
+    <t>10.452,00</t>
+  </si>
+  <si>
     <t>LBP</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>2.586,00</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>Port Louis</t>
   </si>
   <si>
+    <t>2.040,00</t>
+  </si>
+  <si>
     <t>MUR</t>
   </si>
   <si>
@@ -1513,12 +2068,18 @@
     <t>Tallinn</t>
   </si>
   <si>
+    <t>45.227,00</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Oslo</t>
   </si>
   <si>
+    <t>323.802,00</t>
+  </si>
+  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -1528,6 +2089,9 @@
     <t>Moroni</t>
   </si>
   <si>
+    <t>1.862,00</t>
+  </si>
+  <si>
     <t>KMF</t>
   </si>
   <si>
@@ -1537,6 +2101,9 @@
     <t>Caracas</t>
   </si>
   <si>
+    <t>916.445,00</t>
+  </si>
+  <si>
     <t>VES</t>
   </si>
   <si>
@@ -1546,6 +2113,9 @@
     <t>Tehran</t>
   </si>
   <si>
+    <t>1.648.195,00</t>
+  </si>
+  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -1555,6 +2125,9 @@
     <t>Stockholm</t>
   </si>
   <si>
+    <t>450.295,00</t>
+  </si>
+  <si>
     <t>SEK</t>
   </si>
   <si>
@@ -1564,6 +2137,9 @@
     <t>Suva</t>
   </si>
   <si>
+    <t>18.272,00</t>
+  </si>
+  <si>
     <t>FJD</t>
   </si>
   <si>
@@ -1573,6 +2149,9 @@
     <t>Manila</t>
   </si>
   <si>
+    <t>342.353,00</t>
+  </si>
+  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -1582,6 +2161,9 @@
     <t>City of Victoria</t>
   </si>
   <si>
+    <t>1.104,00</t>
+  </si>
+  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -1591,12 +2173,18 @@
     <t>Montevideo</t>
   </si>
   <si>
+    <t>181.034,00</t>
+  </si>
+  <si>
     <t>UYU</t>
   </si>
   <si>
     <t>Macau</t>
   </si>
   <si>
+    <t>30,00</t>
+  </si>
+  <si>
     <t>MOP</t>
   </si>
   <si>
@@ -1606,12 +2194,18 @@
     <t>Bern</t>
   </si>
   <si>
+    <t>41.284,00</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Port of Spain</t>
   </si>
   <si>
+    <t>5.130,00</t>
+  </si>
+  <si>
     <t>TTD</t>
   </si>
   <si>
@@ -1621,6 +2215,9 @@
     <t>Kigali</t>
   </si>
   <si>
+    <t>26.338,00</t>
+  </si>
+  <si>
     <t>RWF</t>
   </si>
   <si>
@@ -1630,6 +2227,9 @@
     <t>Tirana</t>
   </si>
   <si>
+    <t>28.748,00</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -1639,36 +2239,54 @@
     <t>Bissau</t>
   </si>
   <si>
+    <t>36.125,00</t>
+  </si>
+  <si>
     <t>Ivory Coast</t>
   </si>
   <si>
     <t>Yamoussoukro</t>
   </si>
   <si>
+    <t>322.463,00</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
     <t>Pyongyang</t>
   </si>
   <si>
+    <t>120.538,00</t>
+  </si>
+  <si>
     <t>KPW</t>
   </si>
   <si>
     <t>Bouvet Island</t>
   </si>
   <si>
+    <t>49,00</t>
+  </si>
+  <si>
     <t>Andorra</t>
   </si>
   <si>
     <t>Andorra la Vella</t>
   </si>
   <si>
+    <t>468,00</t>
+  </si>
+  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>Malé</t>
   </si>
   <si>
+    <t>300,00</t>
+  </si>
+  <si>
     <t>MVR</t>
   </si>
   <si>
@@ -1681,6 +2299,9 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>710,00</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
@@ -1690,6 +2311,9 @@
     <t>Harare</t>
   </si>
   <si>
+    <t>390.757,00</t>
+  </si>
+  <si>
     <t>ZWL</t>
   </si>
   <si>
@@ -1699,18 +2323,27 @@
     <t>Charlotte Amalie</t>
   </si>
   <si>
+    <t>347,00</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
     <t>Roseau</t>
   </si>
   <si>
+    <t>751,00</t>
+  </si>
+  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>Rabat</t>
   </si>
   <si>
+    <t>446.550,00</t>
+  </si>
+  <si>
     <t>MAD</t>
   </si>
   <si>
@@ -1720,12 +2353,18 @@
     <t>Mamoudzou</t>
   </si>
   <si>
+    <t>374,00</t>
+  </si>
+  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>Doha</t>
   </si>
   <si>
+    <t>11.586,00</t>
+  </si>
+  <si>
     <t>QAR</t>
   </si>
   <si>
@@ -1735,6 +2374,9 @@
     <t>Philipsburg</t>
   </si>
   <si>
+    <t>34,00</t>
+  </si>
+  <si>
     <t>ANG</t>
   </si>
   <si>
@@ -1744,6 +2386,9 @@
     <t>San José</t>
   </si>
   <si>
+    <t>51.100,00</t>
+  </si>
+  <si>
     <t>CRC</t>
   </si>
   <si>
@@ -1753,18 +2398,27 @@
     <t>Alofi</t>
   </si>
   <si>
+    <t>260,00</t>
+  </si>
+  <si>
     <t>Curaçao</t>
   </si>
   <si>
     <t>Willemstad</t>
   </si>
   <si>
+    <t>444,00</t>
+  </si>
+  <si>
     <t>Cape Verde</t>
   </si>
   <si>
     <t>Praia</t>
   </si>
   <si>
+    <t>4.033,00</t>
+  </si>
+  <si>
     <t>CVE</t>
   </si>
   <si>
@@ -1774,12 +2428,18 @@
     <t>Amsterdam</t>
   </si>
   <si>
+    <t>41.850,00</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>Bucharest</t>
   </si>
   <si>
+    <t>238.391,00</t>
+  </si>
+  <si>
     <t>RON</t>
   </si>
   <si>
@@ -1789,6 +2449,9 @@
     <t>Freetown</t>
   </si>
   <si>
+    <t>71.740,00</t>
+  </si>
+  <si>
     <t>SLL</t>
   </si>
   <si>
@@ -1798,6 +2461,9 @@
     <t>Managua</t>
   </si>
   <si>
+    <t>130.373,00</t>
+  </si>
+  <si>
     <t>NIO</t>
   </si>
   <si>
@@ -1807,12 +2473,18 @@
     <t>Algiers</t>
   </si>
   <si>
+    <t>2.381.741,00</t>
+  </si>
+  <si>
     <t>DZD</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
+    <t>10.991,00</t>
+  </si>
+  <si>
     <t>JMD</t>
   </si>
   <si>
@@ -1822,15 +2494,24 @@
     <t>Lomé</t>
   </si>
   <si>
+    <t>56.785,00</t>
+  </si>
+  <si>
     <t>Vatican City</t>
   </si>
   <si>
+    <t>0,44</t>
+  </si>
+  <si>
     <t>Jersey</t>
   </si>
   <si>
     <t>Saint Helier</t>
   </si>
   <si>
+    <t>116,00</t>
+  </si>
+  <si>
     <t>GBP,JEP</t>
   </si>
   <si>
@@ -1840,12 +2521,18 @@
     <t>Quito</t>
   </si>
   <si>
+    <t>276.841,00</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>Apia</t>
   </si>
   <si>
+    <t>2.842,00</t>
+  </si>
+  <si>
     <t>WST</t>
   </si>
   <si>
@@ -1855,12 +2542,18 @@
     <t>Diego Garcia</t>
   </si>
   <si>
+    <t>60,00</t>
+  </si>
+  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>Abuja</t>
   </si>
   <si>
+    <t>923.768,00</t>
+  </si>
+  <si>
     <t>NGN</t>
   </si>
   <si>
@@ -1870,6 +2563,9 @@
     <t>Lusaka</t>
   </si>
   <si>
+    <t>752.612,00</t>
+  </si>
+  <si>
     <t>ZMW</t>
   </si>
   <si>
@@ -1879,30 +2575,45 @@
     <t>Port-aux-Français</t>
   </si>
   <si>
+    <t>7.747,00</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>N'Djamena</t>
   </si>
   <si>
+    <t>1.284.000,00</t>
+  </si>
+  <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
     <t>Longyearbyen</t>
   </si>
   <si>
+    <t>-1,00</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>Vilnius</t>
   </si>
   <si>
+    <t>65.300,00</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>Kyiv</t>
   </si>
   <si>
+    <t>603.500,00</t>
+  </si>
+  <si>
     <t>UAH</t>
   </si>
   <si>
@@ -1912,6 +2623,9 @@
     <t>Beijing</t>
   </si>
   <si>
+    <t>9.706.961,00</t>
+  </si>
+  <si>
     <t>CNY</t>
   </si>
   <si>
@@ -1921,18 +2635,27 @@
     <t>Washington DC</t>
   </si>
   <si>
+    <t>34,20</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
     <t>Saipan</t>
   </si>
   <si>
+    <t>464,00</t>
+  </si>
+  <si>
     <t>Palestine</t>
   </si>
   <si>
     <t>Ramallah</t>
   </si>
   <si>
+    <t>6.220,00</t>
+  </si>
+  <si>
     <t>EGP,ILS,JOD</t>
   </si>
   <si>
@@ -1942,12 +2665,18 @@
     <t>Nuuk</t>
   </si>
   <si>
+    <t>2.166.086,00</t>
+  </si>
+  <si>
     <t>South Sudan</t>
   </si>
   <si>
     <t>Juba</t>
   </si>
   <si>
+    <t>619.745,00</t>
+  </si>
+  <si>
     <t>SSP</t>
   </si>
   <si>
@@ -1957,6 +2686,9 @@
     <t>Dhaka</t>
   </si>
   <si>
+    <t>147.570,00</t>
+  </si>
+  <si>
     <t>BDT</t>
   </si>
   <si>
@@ -1966,12 +2698,18 @@
     <t>Malabo</t>
   </si>
   <si>
+    <t>28.051,00</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>Windhoek</t>
   </si>
   <si>
+    <t>825.615,00</t>
+  </si>
+  <si>
     <t>NAD,ZAR</t>
   </si>
   <si>
@@ -1981,12 +2719,18 @@
     <t>Dili</t>
   </si>
   <si>
+    <t>14.874,00</t>
+  </si>
+  <si>
     <t>Brunei</t>
   </si>
   <si>
     <t>Bandar Seri Begawan</t>
   </si>
   <si>
+    <t>5.765,00</t>
+  </si>
+  <si>
     <t>BND,SGD</t>
   </si>
   <si>
@@ -1994,6 +2738,9 @@
   </si>
   <si>
     <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>811,00</t>
   </si>
   <si>
     <t>AUD,KID</t>
@@ -2380,3497 +3127,3497 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>17818</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>459</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>33846</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1246700</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>1098581</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>1285216</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>18575</v>
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>357114</v>
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>582000</v>
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>652230</v>
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>93028</v>
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>272967</v>
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>9984670</v>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19">
-        <v>1904569</v>
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>36193</v>
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21">
-        <v>616</v>
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>180</v>
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23">
-        <v>267668</v>
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24">
-        <v>3903</v>
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
-        <v>111369</v>
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26">
-        <v>948</v>
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27">
-        <v>266000</v>
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28">
-        <v>783562</v>
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29">
-        <v>1240192</v>
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30">
-        <v>112622</v>
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31">
-        <v>9251</v>
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32">
-        <v>637657</v>
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33">
-        <v>1267000</v>
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34">
-        <v>1393</v>
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35">
-        <v>92090</v>
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36">
-        <v>196722</v>
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37">
-        <v>109884</v>
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38">
-        <v>207600</v>
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39">
-        <v>430</v>
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40">
-        <v>163610</v>
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41">
-        <v>20770</v>
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42">
-        <v>301336</v>
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43">
-        <v>676578</v>
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44">
-        <v>14000000</v>
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45">
-        <v>702</v>
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46">
-        <v>142</v>
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47">
-        <v>23200</v>
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48">
-        <v>342000</v>
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49">
-        <v>6</v>
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50">
-        <v>2344858</v>
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51">
-        <v>22966</v>
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52">
-        <v>54</v>
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53">
-        <v>7692024</v>
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54">
-        <v>394</v>
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55">
-        <v>475442</v>
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56">
-        <v>17098242</v>
+        <v>203</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57">
-        <v>442</v>
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58">
-        <v>377930</v>
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59">
-        <v>264</v>
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60">
-        <v>328</v>
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61">
-        <v>112492</v>
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62">
-        <v>412</v>
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63">
-        <v>27834</v>
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64">
-        <v>406752</v>
+        <v>231</v>
+      </c>
+      <c r="C64" t="s">
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65">
-        <v>2780400</v>
+        <v>235</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66">
-        <v>4167</v>
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67">
-        <v>964</v>
+        <v>242</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68">
-        <v>30355</v>
+        <v>246</v>
+      </c>
+      <c r="C68" t="s">
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69">
-        <v>1886068</v>
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70">
-        <v>21041</v>
+        <v>254</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71">
-        <v>135</v>
+        <v>257</v>
+      </c>
+      <c r="C71" t="s">
+        <v>258</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72">
-        <v>199951</v>
+        <v>260</v>
+      </c>
+      <c r="C72" t="s">
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73">
-        <v>8515767</v>
+        <v>264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74">
-        <v>181035</v>
+        <v>268</v>
+      </c>
+      <c r="C74" t="s">
+        <v>269</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75">
-        <v>102</v>
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>273</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76">
-        <v>1221037</v>
+        <v>275</v>
+      </c>
+      <c r="C76" t="s">
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77">
-        <v>108889</v>
+        <v>279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78">
-        <v>9372610</v>
+        <v>283</v>
+      </c>
+      <c r="C78" t="s">
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79">
-        <v>86600</v>
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80">
-        <v>330803</v>
+        <v>290</v>
+      </c>
+      <c r="C80" t="s">
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81">
-        <v>1141748</v>
+        <v>294</v>
+      </c>
+      <c r="C81" t="s">
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82">
-        <v>1030700</v>
+        <v>298</v>
+      </c>
+      <c r="C82" t="s">
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83">
-        <v>765</v>
+        <v>302</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84">
-        <v>30528</v>
+        <v>306</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85">
-        <v>756102</v>
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C86">
-        <v>25713</v>
+        <v>313</v>
+      </c>
+      <c r="C86" t="s">
+        <v>314</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87">
-        <v>801590</v>
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88">
-        <v>36</v>
+        <v>321</v>
+      </c>
+      <c r="C88" t="s">
+        <v>322</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89">
-        <v>199</v>
+        <v>324</v>
+      </c>
+      <c r="C89" t="s">
+        <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90">
-        <v>1104300</v>
+        <v>327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>328</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C91">
-        <v>1628</v>
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92">
-        <v>549</v>
+        <v>334</v>
+      </c>
+      <c r="C92" t="s">
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93">
-        <v>3287590</v>
+        <v>337</v>
+      </c>
+      <c r="C93" t="s">
+        <v>338</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94">
-        <v>8870</v>
+        <v>341</v>
+      </c>
+      <c r="C94" t="s">
+        <v>342</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C95">
-        <v>505992</v>
+        <v>344</v>
+      </c>
+      <c r="C95" t="s">
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96">
-        <v>2724900</v>
+        <v>347</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
-      </c>
-      <c r="C97">
-        <v>309500</v>
+        <v>351</v>
+      </c>
+      <c r="C97" t="s">
+        <v>352</v>
       </c>
       <c r="D97" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
-      </c>
-      <c r="C98">
-        <v>83600</v>
+        <v>355</v>
+      </c>
+      <c r="C98" t="s">
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
-      </c>
-      <c r="C99">
-        <v>312679</v>
+        <v>359</v>
+      </c>
+      <c r="C99" t="s">
+        <v>360</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="B100" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100">
-        <v>83534</v>
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>364</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
-      </c>
-      <c r="C101">
-        <v>344</v>
+        <v>366</v>
+      </c>
+      <c r="C101" t="s">
+        <v>367</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
-      </c>
-      <c r="C102">
-        <v>65610</v>
+        <v>369</v>
+      </c>
+      <c r="C102" t="s">
+        <v>370</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
-      </c>
-      <c r="C103">
-        <v>143100</v>
+        <v>373</v>
+      </c>
+      <c r="C103" t="s">
+        <v>374</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104">
-        <v>185180</v>
+        <v>377</v>
+      </c>
+      <c r="C104" t="s">
+        <v>378</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105">
-        <v>1759540</v>
+        <v>381</v>
+      </c>
+      <c r="C105" t="s">
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="B106" t="s">
-        <v>282</v>
-      </c>
-      <c r="C106">
-        <v>27750</v>
+        <v>385</v>
+      </c>
+      <c r="C106" t="s">
+        <v>386</v>
       </c>
       <c r="D106" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107">
-        <v>61</v>
+        <v>389</v>
+      </c>
+      <c r="C107" t="s">
+        <v>390</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
-      </c>
-      <c r="C108">
-        <v>747</v>
+        <v>392</v>
+      </c>
+      <c r="C108" t="s">
+        <v>393</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109">
-        <v>151</v>
+        <v>396</v>
+      </c>
+      <c r="C109" t="s">
+        <v>397</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>398</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
-      </c>
-      <c r="C110">
-        <v>69700</v>
+        <v>399</v>
+      </c>
+      <c r="C110" t="s">
+        <v>400</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
-      </c>
-      <c r="C111">
-        <v>117600</v>
+        <v>403</v>
+      </c>
+      <c r="C111" t="s">
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
-      </c>
-      <c r="C112">
-        <v>945087</v>
+        <v>407</v>
+      </c>
+      <c r="C112" t="s">
+        <v>408</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="B113" t="s">
-        <v>301</v>
-      </c>
-      <c r="C113">
-        <v>78865</v>
+        <v>411</v>
+      </c>
+      <c r="C113" t="s">
+        <v>412</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
-      </c>
-      <c r="C114">
-        <v>10908</v>
+        <v>415</v>
+      </c>
+      <c r="C114" t="s">
+        <v>416</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115">
-        <v>38394</v>
+        <v>418</v>
+      </c>
+      <c r="C115" t="s">
+        <v>419</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C116">
-        <v>1002450</v>
+        <v>422</v>
+      </c>
+      <c r="C116" t="s">
+        <v>423</v>
       </c>
       <c r="D116" t="s">
-        <v>310</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117">
-        <v>261</v>
+        <v>426</v>
+      </c>
+      <c r="C117" t="s">
+        <v>427</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118">
-        <v>331212</v>
+        <v>429</v>
+      </c>
+      <c r="C118" t="s">
+        <v>430</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="B119" t="s">
-        <v>317</v>
-      </c>
-      <c r="C119">
-        <v>181</v>
+        <v>433</v>
+      </c>
+      <c r="C119" t="s">
+        <v>434</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
-      </c>
-      <c r="C120">
-        <v>83871</v>
+        <v>436</v>
+      </c>
+      <c r="C120" t="s">
+        <v>437</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
-      </c>
-      <c r="C121">
-        <v>462840</v>
+        <v>439</v>
+      </c>
+      <c r="C121" t="s">
+        <v>440</v>
       </c>
       <c r="D121" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122">
-        <v>13943</v>
+        <v>443</v>
+      </c>
+      <c r="C122" t="s">
+        <v>444</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
-      </c>
-      <c r="C123">
-        <v>56594</v>
+        <v>447</v>
+      </c>
+      <c r="C123" t="s">
+        <v>448</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
-      </c>
-      <c r="C124">
-        <v>20273</v>
+        <v>451</v>
+      </c>
+      <c r="C124" t="s">
+        <v>452</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>331</v>
+        <v>453</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
-      </c>
-      <c r="C125">
-        <v>447400</v>
+        <v>454</v>
+      </c>
+      <c r="C125" t="s">
+        <v>455</v>
       </c>
       <c r="D125" t="s">
-        <v>333</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>457</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
-      </c>
-      <c r="C126">
-        <v>338424</v>
+        <v>458</v>
+      </c>
+      <c r="C126" t="s">
+        <v>459</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="B127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C127">
-        <v>214969</v>
+        <v>461</v>
+      </c>
+      <c r="C127" t="s">
+        <v>462</v>
       </c>
       <c r="D127" t="s">
-        <v>338</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
-      </c>
-      <c r="C128">
-        <v>1580</v>
+        <v>465</v>
+      </c>
+      <c r="C128" t="s">
+        <v>466</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
-      </c>
-      <c r="C129">
-        <v>2.02</v>
+        <v>467</v>
+      </c>
+      <c r="C129" t="s">
+        <v>468</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
-      </c>
-      <c r="C130">
-        <v>49037</v>
+        <v>470</v>
+      </c>
+      <c r="C130" t="s">
+        <v>471</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>472</v>
       </c>
       <c r="B131" t="s">
-        <v>345</v>
-      </c>
-      <c r="C131">
-        <v>527968</v>
+        <v>473</v>
+      </c>
+      <c r="C131" t="s">
+        <v>474</v>
       </c>
       <c r="D131" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
-      </c>
-      <c r="C132">
-        <v>118484</v>
+        <v>477</v>
+      </c>
+      <c r="C132" t="s">
+        <v>478</v>
       </c>
       <c r="D132" t="s">
-        <v>349</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
-      </c>
-      <c r="C133">
-        <v>10689</v>
+        <v>481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>482</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
-      </c>
-      <c r="C134">
-        <v>75417</v>
+        <v>485</v>
+      </c>
+      <c r="C134" t="s">
+        <v>486</v>
       </c>
       <c r="D134" t="s">
-        <v>355</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="B135" t="s">
-        <v>357</v>
-      </c>
-      <c r="C135">
-        <v>572</v>
+        <v>489</v>
+      </c>
+      <c r="C135" t="s">
+        <v>490</v>
       </c>
       <c r="D135" t="s">
-        <v>358</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
-      </c>
-      <c r="C136">
-        <v>70273</v>
+        <v>493</v>
+      </c>
+      <c r="C136" t="s">
+        <v>494</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>361</v>
+        <v>495</v>
       </c>
       <c r="B137" t="s">
-        <v>362</v>
-      </c>
-      <c r="C137">
-        <v>100210</v>
+        <v>496</v>
+      </c>
+      <c r="C137" t="s">
+        <v>497</v>
       </c>
       <c r="D137" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
-      </c>
-      <c r="C138">
-        <v>131990</v>
+        <v>500</v>
+      </c>
+      <c r="C138" t="s">
+        <v>501</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>366</v>
+        <v>502</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
-      </c>
-      <c r="C139">
-        <v>78</v>
+        <v>503</v>
+      </c>
+      <c r="C139" t="s">
+        <v>504</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
-      </c>
-      <c r="C140">
-        <v>881912</v>
+        <v>507</v>
+      </c>
+      <c r="C140" t="s">
+        <v>508</v>
       </c>
       <c r="D140" t="s">
-        <v>371</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>372</v>
+        <v>510</v>
       </c>
       <c r="B141" t="s">
-        <v>373</v>
-      </c>
-      <c r="C141">
-        <v>47</v>
+        <v>511</v>
+      </c>
+      <c r="C141" t="s">
+        <v>512</v>
       </c>
       <c r="D141" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="B142" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142">
-        <v>29743</v>
+        <v>515</v>
+      </c>
+      <c r="C142" t="s">
+        <v>516</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
       <c r="B143" t="s">
-        <v>379</v>
-      </c>
-      <c r="C143">
-        <v>316</v>
+        <v>519</v>
+      </c>
+      <c r="C143" t="s">
+        <v>520</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
-      </c>
-      <c r="C144">
-        <v>488100</v>
+        <v>522</v>
+      </c>
+      <c r="C144" t="s">
+        <v>523</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="B145" t="s">
-        <v>384</v>
-      </c>
-      <c r="C145">
-        <v>48671</v>
+        <v>526</v>
+      </c>
+      <c r="C145" t="s">
+        <v>527</v>
       </c>
       <c r="D145" t="s">
-        <v>385</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="B146" t="s">
-        <v>387</v>
-      </c>
-      <c r="C146">
-        <v>28896</v>
+        <v>530</v>
+      </c>
+      <c r="C146" t="s">
+        <v>531</v>
       </c>
       <c r="D146" t="s">
-        <v>388</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="B147" t="s">
-        <v>390</v>
-      </c>
-      <c r="C147">
-        <v>12189</v>
+        <v>534</v>
+      </c>
+      <c r="C147" t="s">
+        <v>535</v>
       </c>
       <c r="D147" t="s">
-        <v>391</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>392</v>
+        <v>537</v>
       </c>
       <c r="B148" t="s">
-        <v>393</v>
-      </c>
-      <c r="C148">
-        <v>587041</v>
+        <v>538</v>
+      </c>
+      <c r="C148" t="s">
+        <v>539</v>
       </c>
       <c r="D148" t="s">
-        <v>394</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>395</v>
+        <v>541</v>
       </c>
       <c r="B149" t="s">
-        <v>396</v>
-      </c>
-      <c r="C149">
-        <v>236800</v>
+        <v>542</v>
+      </c>
+      <c r="C149" t="s">
+        <v>543</v>
       </c>
       <c r="D149" t="s">
-        <v>397</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
-      </c>
-      <c r="C150">
-        <v>236</v>
+        <v>546</v>
+      </c>
+      <c r="C150" t="s">
+        <v>547</v>
       </c>
       <c r="D150" t="s">
-        <v>400</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>401</v>
+        <v>549</v>
       </c>
       <c r="B151" t="s">
-        <v>402</v>
-      </c>
-      <c r="C151">
-        <v>53</v>
+        <v>550</v>
+      </c>
+      <c r="C151" t="s">
+        <v>551</v>
       </c>
       <c r="D151" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>403</v>
+        <v>552</v>
       </c>
       <c r="B152" t="s">
-        <v>404</v>
-      </c>
-      <c r="C152">
-        <v>1564110</v>
+        <v>553</v>
+      </c>
+      <c r="C152" t="s">
+        <v>554</v>
       </c>
       <c r="D152" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="B153" t="s">
-        <v>407</v>
-      </c>
-      <c r="C153">
-        <v>1128</v>
+        <v>557</v>
+      </c>
+      <c r="C153" t="s">
+        <v>558</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>408</v>
+        <v>559</v>
       </c>
       <c r="B154" t="s">
-        <v>409</v>
-      </c>
-      <c r="C154">
-        <v>551695</v>
+        <v>560</v>
+      </c>
+      <c r="C154" t="s">
+        <v>561</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>410</v>
+        <v>562</v>
       </c>
       <c r="B155" t="s">
-        <v>411</v>
-      </c>
-      <c r="C155">
-        <v>622984</v>
+        <v>563</v>
+      </c>
+      <c r="C155" t="s">
+        <v>564</v>
       </c>
       <c r="D155" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>412</v>
+        <v>565</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
-      </c>
-      <c r="C156">
-        <v>91</v>
+        <v>566</v>
+      </c>
+      <c r="C156" t="s">
+        <v>567</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="B157" t="s">
-        <v>415</v>
-      </c>
-      <c r="C157">
-        <v>17364</v>
+        <v>569</v>
+      </c>
+      <c r="C157" t="s">
+        <v>570</v>
       </c>
       <c r="D157" t="s">
-        <v>416</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>417</v>
+        <v>572</v>
       </c>
       <c r="B158" t="s">
-        <v>418</v>
-      </c>
-      <c r="C158">
-        <v>242900</v>
+        <v>573</v>
+      </c>
+      <c r="C158" t="s">
+        <v>574</v>
       </c>
       <c r="D158" t="s">
-        <v>419</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>420</v>
+        <v>576</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
-      </c>
-      <c r="C159">
-        <v>103000</v>
+        <v>577</v>
+      </c>
+      <c r="C159" t="s">
+        <v>578</v>
       </c>
       <c r="D159" t="s">
-        <v>422</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>423</v>
+        <v>580</v>
       </c>
       <c r="B160" t="s">
-        <v>424</v>
-      </c>
-      <c r="C160">
-        <v>147181</v>
+        <v>581</v>
+      </c>
+      <c r="C160" t="s">
+        <v>582</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
-      </c>
-      <c r="C161">
-        <v>238533</v>
+        <v>585</v>
+      </c>
+      <c r="C161" t="s">
+        <v>586</v>
       </c>
       <c r="D161" t="s">
-        <v>428</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>429</v>
+        <v>588</v>
       </c>
       <c r="B162" t="s">
-        <v>430</v>
-      </c>
-      <c r="C162">
-        <v>438317</v>
+        <v>589</v>
+      </c>
+      <c r="C162" t="s">
+        <v>590</v>
       </c>
       <c r="D162" t="s">
-        <v>431</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>432</v>
+        <v>592</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
-      </c>
-      <c r="C163">
-        <v>513120</v>
+        <v>593</v>
+      </c>
+      <c r="C163" t="s">
+        <v>594</v>
       </c>
       <c r="D163" t="s">
-        <v>434</v>
+        <v>595</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>435</v>
+        <v>596</v>
       </c>
       <c r="B164" t="s">
-        <v>436</v>
-      </c>
-      <c r="C164">
-        <v>43094</v>
+        <v>597</v>
+      </c>
+      <c r="C164" t="s">
+        <v>598</v>
       </c>
       <c r="D164" t="s">
-        <v>437</v>
+        <v>599</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>438</v>
+        <v>600</v>
       </c>
       <c r="B165" t="s">
-        <v>439</v>
-      </c>
-      <c r="C165">
-        <v>88361</v>
+        <v>601</v>
+      </c>
+      <c r="C165" t="s">
+        <v>602</v>
       </c>
       <c r="D165" t="s">
-        <v>440</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>441</v>
+        <v>604</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
-      </c>
-      <c r="C166">
-        <v>241550</v>
+        <v>605</v>
+      </c>
+      <c r="C166" t="s">
+        <v>606</v>
       </c>
       <c r="D166" t="s">
-        <v>443</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="B167" t="s">
-        <v>445</v>
-      </c>
-      <c r="C167">
-        <v>14</v>
+        <v>609</v>
+      </c>
+      <c r="C167" t="s">
+        <v>610</v>
       </c>
       <c r="D167" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>446</v>
+        <v>611</v>
       </c>
       <c r="B168" t="s">
-        <v>447</v>
-      </c>
-      <c r="C168">
-        <v>13812</v>
+        <v>612</v>
+      </c>
+      <c r="C168" t="s">
+        <v>613</v>
       </c>
       <c r="D168" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>448</v>
+        <v>614</v>
       </c>
       <c r="B169" t="s">
-        <v>449</v>
-      </c>
-      <c r="C169">
-        <v>2149690</v>
+        <v>615</v>
+      </c>
+      <c r="C169" t="s">
+        <v>616</v>
       </c>
       <c r="D169" t="s">
-        <v>450</v>
+        <v>617</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>451</v>
+        <v>618</v>
       </c>
       <c r="B170" t="s">
-        <v>452</v>
-      </c>
-      <c r="C170">
-        <v>89342</v>
+        <v>619</v>
+      </c>
+      <c r="C170" t="s">
+        <v>620</v>
       </c>
       <c r="D170" t="s">
-        <v>453</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>454</v>
+        <v>622</v>
       </c>
       <c r="B171" t="s">
-        <v>455</v>
-      </c>
-      <c r="C171">
-        <v>163820</v>
+        <v>623</v>
+      </c>
+      <c r="C171" t="s">
+        <v>624</v>
       </c>
       <c r="D171" t="s">
-        <v>456</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>626</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
-      </c>
-      <c r="C172">
-        <v>270467</v>
+        <v>627</v>
+      </c>
+      <c r="C172" t="s">
+        <v>628</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>459</v>
+        <v>629</v>
       </c>
       <c r="B173" t="s">
-        <v>460</v>
-      </c>
-      <c r="C173">
-        <v>580367</v>
+        <v>630</v>
+      </c>
+      <c r="C173" t="s">
+        <v>631</v>
       </c>
       <c r="D173" t="s">
-        <v>461</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>462</v>
+        <v>633</v>
       </c>
       <c r="B174" t="s">
-        <v>463</v>
-      </c>
-      <c r="C174">
-        <v>1964375</v>
+        <v>634</v>
+      </c>
+      <c r="C174" t="s">
+        <v>635</v>
       </c>
       <c r="D174" t="s">
-        <v>464</v>
+        <v>636</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>465</v>
+        <v>637</v>
       </c>
       <c r="B175" t="s">
-        <v>466</v>
-      </c>
-      <c r="C175">
-        <v>51209</v>
+        <v>638</v>
+      </c>
+      <c r="C175" t="s">
+        <v>639</v>
       </c>
       <c r="D175" t="s">
-        <v>467</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>468</v>
+        <v>641</v>
       </c>
       <c r="B176" t="s">
-        <v>469</v>
-      </c>
-      <c r="C176">
-        <v>389</v>
+        <v>642</v>
+      </c>
+      <c r="C176" t="s">
+        <v>643</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>470</v>
+        <v>644</v>
       </c>
       <c r="B177" t="s">
-        <v>471</v>
-      </c>
-      <c r="C177">
-        <v>452</v>
+        <v>645</v>
+      </c>
+      <c r="C177" t="s">
+        <v>646</v>
       </c>
       <c r="D177" t="s">
-        <v>472</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>473</v>
+        <v>648</v>
       </c>
       <c r="B178" t="s">
-        <v>474</v>
-      </c>
-      <c r="C178">
-        <v>242</v>
+        <v>649</v>
+      </c>
+      <c r="C178" t="s">
+        <v>650</v>
       </c>
       <c r="D178" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>475</v>
+        <v>651</v>
       </c>
       <c r="B179" t="s">
-        <v>476</v>
-      </c>
-      <c r="C179">
-        <v>12</v>
+        <v>652</v>
+      </c>
+      <c r="C179" t="s">
+        <v>653</v>
       </c>
       <c r="D179" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>477</v>
+        <v>654</v>
       </c>
       <c r="B180" t="s">
-        <v>478</v>
-      </c>
-      <c r="C180">
-        <v>110879</v>
+        <v>655</v>
+      </c>
+      <c r="C180" t="s">
+        <v>656</v>
       </c>
       <c r="D180" t="s">
-        <v>479</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>658</v>
       </c>
       <c r="B181" t="s">
-        <v>481</v>
-      </c>
-      <c r="C181">
-        <v>12173</v>
+        <v>659</v>
+      </c>
+      <c r="C181" t="s">
+        <v>660</v>
       </c>
       <c r="D181" t="s">
-        <v>482</v>
+        <v>661</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>483</v>
+        <v>662</v>
       </c>
       <c r="B182" t="s">
-        <v>484</v>
-      </c>
-      <c r="C182">
-        <v>64559</v>
+        <v>663</v>
+      </c>
+      <c r="C182" t="s">
+        <v>664</v>
       </c>
       <c r="D182" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>485</v>
+        <v>665</v>
       </c>
       <c r="B183" t="s">
-        <v>486</v>
-      </c>
-      <c r="C183">
-        <v>2511</v>
+        <v>666</v>
+      </c>
+      <c r="C183" t="s">
+        <v>667</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>487</v>
+        <v>668</v>
       </c>
       <c r="B184" t="s">
-        <v>488</v>
-      </c>
-      <c r="C184">
-        <v>245857</v>
+        <v>669</v>
+      </c>
+      <c r="C184" t="s">
+        <v>670</v>
       </c>
       <c r="D184" t="s">
-        <v>489</v>
+        <v>671</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>490</v>
+        <v>672</v>
       </c>
       <c r="B185" t="s">
-        <v>491</v>
-      </c>
-      <c r="C185">
-        <v>10452</v>
+        <v>673</v>
+      </c>
+      <c r="C185" t="s">
+        <v>674</v>
       </c>
       <c r="D185" t="s">
-        <v>492</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>493</v>
+        <v>676</v>
       </c>
       <c r="B186" t="s">
-        <v>493</v>
-      </c>
-      <c r="C186">
-        <v>2586</v>
+        <v>676</v>
+      </c>
+      <c r="C186" t="s">
+        <v>677</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>494</v>
+        <v>678</v>
       </c>
       <c r="B187" t="s">
-        <v>495</v>
-      </c>
-      <c r="C187">
-        <v>2040</v>
+        <v>679</v>
+      </c>
+      <c r="C187" t="s">
+        <v>680</v>
       </c>
       <c r="D187" t="s">
-        <v>496</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>497</v>
+        <v>682</v>
       </c>
       <c r="B188" t="s">
-        <v>498</v>
-      </c>
-      <c r="C188">
-        <v>45227</v>
+        <v>683</v>
+      </c>
+      <c r="C188" t="s">
+        <v>684</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>499</v>
+        <v>685</v>
       </c>
       <c r="B189" t="s">
-        <v>500</v>
-      </c>
-      <c r="C189">
-        <v>323802</v>
+        <v>686</v>
+      </c>
+      <c r="C189" t="s">
+        <v>687</v>
       </c>
       <c r="D189" t="s">
-        <v>501</v>
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>502</v>
+        <v>689</v>
       </c>
       <c r="B190" t="s">
-        <v>503</v>
-      </c>
-      <c r="C190">
-        <v>1862</v>
+        <v>690</v>
+      </c>
+      <c r="C190" t="s">
+        <v>691</v>
       </c>
       <c r="D190" t="s">
-        <v>504</v>
+        <v>692</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>505</v>
+        <v>693</v>
       </c>
       <c r="B191" t="s">
-        <v>506</v>
-      </c>
-      <c r="C191">
-        <v>916445</v>
+        <v>694</v>
+      </c>
+      <c r="C191" t="s">
+        <v>695</v>
       </c>
       <c r="D191" t="s">
-        <v>507</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>508</v>
+        <v>697</v>
       </c>
       <c r="B192" t="s">
-        <v>509</v>
-      </c>
-      <c r="C192">
-        <v>1648195</v>
+        <v>698</v>
+      </c>
+      <c r="C192" t="s">
+        <v>699</v>
       </c>
       <c r="D192" t="s">
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>511</v>
+        <v>701</v>
       </c>
       <c r="B193" t="s">
-        <v>512</v>
-      </c>
-      <c r="C193">
-        <v>450295</v>
+        <v>702</v>
+      </c>
+      <c r="C193" t="s">
+        <v>703</v>
       </c>
       <c r="D193" t="s">
-        <v>513</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>514</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>515</v>
-      </c>
-      <c r="C194">
-        <v>18272</v>
+        <v>706</v>
+      </c>
+      <c r="C194" t="s">
+        <v>707</v>
       </c>
       <c r="D194" t="s">
-        <v>516</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>517</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s">
-        <v>518</v>
-      </c>
-      <c r="C195">
-        <v>342353</v>
+        <v>710</v>
+      </c>
+      <c r="C195" t="s">
+        <v>711</v>
       </c>
       <c r="D195" t="s">
-        <v>519</v>
+        <v>712</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>520</v>
+        <v>713</v>
       </c>
       <c r="B196" t="s">
-        <v>521</v>
-      </c>
-      <c r="C196">
-        <v>1104</v>
+        <v>714</v>
+      </c>
+      <c r="C196" t="s">
+        <v>715</v>
       </c>
       <c r="D196" t="s">
-        <v>522</v>
+        <v>716</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>523</v>
+        <v>717</v>
       </c>
       <c r="B197" t="s">
-        <v>524</v>
-      </c>
-      <c r="C197">
-        <v>181034</v>
+        <v>718</v>
+      </c>
+      <c r="C197" t="s">
+        <v>719</v>
       </c>
       <c r="D197" t="s">
-        <v>525</v>
+        <v>720</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>526</v>
+        <v>721</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
-      </c>
-      <c r="C198">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="C198" t="s">
+        <v>722</v>
       </c>
       <c r="D198" t="s">
-        <v>527</v>
+        <v>723</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>528</v>
+        <v>724</v>
       </c>
       <c r="B199" t="s">
-        <v>529</v>
-      </c>
-      <c r="C199">
-        <v>41284</v>
+        <v>725</v>
+      </c>
+      <c r="C199" t="s">
+        <v>726</v>
       </c>
       <c r="D199" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>530</v>
+        <v>727</v>
       </c>
       <c r="B200" t="s">
-        <v>531</v>
-      </c>
-      <c r="C200">
-        <v>5130</v>
+        <v>728</v>
+      </c>
+      <c r="C200" t="s">
+        <v>729</v>
       </c>
       <c r="D200" t="s">
-        <v>532</v>
+        <v>730</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>533</v>
+        <v>731</v>
       </c>
       <c r="B201" t="s">
-        <v>534</v>
-      </c>
-      <c r="C201">
-        <v>26338</v>
+        <v>732</v>
+      </c>
+      <c r="C201" t="s">
+        <v>733</v>
       </c>
       <c r="D201" t="s">
-        <v>535</v>
+        <v>734</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>536</v>
+        <v>735</v>
       </c>
       <c r="B202" t="s">
-        <v>537</v>
-      </c>
-      <c r="C202">
-        <v>28748</v>
+        <v>736</v>
+      </c>
+      <c r="C202" t="s">
+        <v>737</v>
       </c>
       <c r="D202" t="s">
-        <v>538</v>
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>539</v>
+        <v>739</v>
       </c>
       <c r="B203" t="s">
-        <v>540</v>
-      </c>
-      <c r="C203">
-        <v>36125</v>
+        <v>740</v>
+      </c>
+      <c r="C203" t="s">
+        <v>741</v>
       </c>
       <c r="D203" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>541</v>
+        <v>742</v>
       </c>
       <c r="B204" t="s">
-        <v>542</v>
-      </c>
-      <c r="C204">
-        <v>322463</v>
+        <v>743</v>
+      </c>
+      <c r="C204" t="s">
+        <v>744</v>
       </c>
       <c r="D204" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>543</v>
+        <v>745</v>
       </c>
       <c r="B205" t="s">
-        <v>544</v>
-      </c>
-      <c r="C205">
-        <v>120538</v>
+        <v>746</v>
+      </c>
+      <c r="C205" t="s">
+        <v>747</v>
       </c>
       <c r="D205" t="s">
-        <v>545</v>
+        <v>748</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>546</v>
+        <v>749</v>
       </c>
       <c r="B206" t="s">
-        <v>121</v>
-      </c>
-      <c r="C206">
-        <v>49</v>
+        <v>162</v>
+      </c>
+      <c r="C206" t="s">
+        <v>750</v>
       </c>
       <c r="D206" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>547</v>
+        <v>751</v>
       </c>
       <c r="B207" t="s">
-        <v>548</v>
-      </c>
-      <c r="C207">
-        <v>468</v>
+        <v>752</v>
+      </c>
+      <c r="C207" t="s">
+        <v>753</v>
       </c>
       <c r="D207" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>549</v>
+        <v>754</v>
       </c>
       <c r="B208" t="s">
-        <v>550</v>
-      </c>
-      <c r="C208">
-        <v>300</v>
+        <v>755</v>
+      </c>
+      <c r="C208" t="s">
+        <v>756</v>
       </c>
       <c r="D208" t="s">
-        <v>551</v>
+        <v>757</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>552</v>
+        <v>758</v>
       </c>
       <c r="B209" t="s">
-        <v>553</v>
-      </c>
-      <c r="C209">
-        <v>21</v>
+        <v>759</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
       </c>
       <c r="D209" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>554</v>
+        <v>760</v>
       </c>
       <c r="B210" t="s">
-        <v>554</v>
-      </c>
-      <c r="C210">
-        <v>710</v>
+        <v>760</v>
+      </c>
+      <c r="C210" t="s">
+        <v>761</v>
       </c>
       <c r="D210" t="s">
-        <v>555</v>
+        <v>762</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>556</v>
+        <v>763</v>
       </c>
       <c r="B211" t="s">
-        <v>557</v>
-      </c>
-      <c r="C211">
-        <v>390757</v>
+        <v>764</v>
+      </c>
+      <c r="C211" t="s">
+        <v>765</v>
       </c>
       <c r="D211" t="s">
-        <v>558</v>
+        <v>766</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>559</v>
+        <v>767</v>
       </c>
       <c r="B212" t="s">
-        <v>560</v>
-      </c>
-      <c r="C212">
-        <v>347</v>
+        <v>768</v>
+      </c>
+      <c r="C212" t="s">
+        <v>769</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="B213" t="s">
-        <v>562</v>
-      </c>
-      <c r="C213">
-        <v>751</v>
+        <v>771</v>
+      </c>
+      <c r="C213" t="s">
+        <v>772</v>
       </c>
       <c r="D213" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>563</v>
+        <v>773</v>
       </c>
       <c r="B214" t="s">
-        <v>564</v>
-      </c>
-      <c r="C214">
-        <v>446550</v>
+        <v>774</v>
+      </c>
+      <c r="C214" t="s">
+        <v>775</v>
       </c>
       <c r="D214" t="s">
-        <v>565</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>566</v>
+        <v>777</v>
       </c>
       <c r="B215" t="s">
-        <v>567</v>
-      </c>
-      <c r="C215">
-        <v>374</v>
+        <v>778</v>
+      </c>
+      <c r="C215" t="s">
+        <v>779</v>
       </c>
       <c r="D215" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>568</v>
+        <v>780</v>
       </c>
       <c r="B216" t="s">
-        <v>569</v>
-      </c>
-      <c r="C216">
-        <v>11586</v>
+        <v>781</v>
+      </c>
+      <c r="C216" t="s">
+        <v>782</v>
       </c>
       <c r="D216" t="s">
-        <v>570</v>
+        <v>783</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>571</v>
+        <v>784</v>
       </c>
       <c r="B217" t="s">
-        <v>572</v>
-      </c>
-      <c r="C217">
-        <v>34</v>
+        <v>785</v>
+      </c>
+      <c r="C217" t="s">
+        <v>786</v>
       </c>
       <c r="D217" t="s">
-        <v>573</v>
+        <v>787</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>574</v>
+        <v>788</v>
       </c>
       <c r="B218" t="s">
-        <v>575</v>
-      </c>
-      <c r="C218">
-        <v>51100</v>
+        <v>789</v>
+      </c>
+      <c r="C218" t="s">
+        <v>790</v>
       </c>
       <c r="D218" t="s">
-        <v>576</v>
+        <v>791</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>577</v>
+        <v>792</v>
       </c>
       <c r="B219" t="s">
-        <v>578</v>
-      </c>
-      <c r="C219">
-        <v>260</v>
+        <v>793</v>
+      </c>
+      <c r="C219" t="s">
+        <v>794</v>
       </c>
       <c r="D219" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>579</v>
+        <v>795</v>
       </c>
       <c r="B220" t="s">
-        <v>580</v>
-      </c>
-      <c r="C220">
-        <v>444</v>
+        <v>796</v>
+      </c>
+      <c r="C220" t="s">
+        <v>797</v>
       </c>
       <c r="D220" t="s">
-        <v>573</v>
+        <v>787</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>581</v>
+        <v>798</v>
       </c>
       <c r="B221" t="s">
-        <v>582</v>
-      </c>
-      <c r="C221">
-        <v>4033</v>
+        <v>799</v>
+      </c>
+      <c r="C221" t="s">
+        <v>800</v>
       </c>
       <c r="D221" t="s">
-        <v>583</v>
+        <v>801</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>584</v>
+        <v>802</v>
       </c>
       <c r="B222" t="s">
-        <v>585</v>
-      </c>
-      <c r="C222">
-        <v>41850</v>
+        <v>803</v>
+      </c>
+      <c r="C222" t="s">
+        <v>804</v>
       </c>
       <c r="D222" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>586</v>
+        <v>805</v>
       </c>
       <c r="B223" t="s">
-        <v>587</v>
-      </c>
-      <c r="C223">
-        <v>238391</v>
+        <v>806</v>
+      </c>
+      <c r="C223" t="s">
+        <v>807</v>
       </c>
       <c r="D223" t="s">
-        <v>588</v>
+        <v>808</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>589</v>
+        <v>809</v>
       </c>
       <c r="B224" t="s">
-        <v>590</v>
-      </c>
-      <c r="C224">
-        <v>71740</v>
+        <v>810</v>
+      </c>
+      <c r="C224" t="s">
+        <v>811</v>
       </c>
       <c r="D224" t="s">
-        <v>591</v>
+        <v>812</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>592</v>
+        <v>813</v>
       </c>
       <c r="B225" t="s">
-        <v>593</v>
-      </c>
-      <c r="C225">
-        <v>130373</v>
+        <v>814</v>
+      </c>
+      <c r="C225" t="s">
+        <v>815</v>
       </c>
       <c r="D225" t="s">
-        <v>594</v>
+        <v>816</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>595</v>
+        <v>817</v>
       </c>
       <c r="B226" t="s">
-        <v>596</v>
-      </c>
-      <c r="C226">
-        <v>2381741</v>
+        <v>818</v>
+      </c>
+      <c r="C226" t="s">
+        <v>819</v>
       </c>
       <c r="D226" t="s">
-        <v>597</v>
+        <v>820</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>598</v>
+        <v>821</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
-      </c>
-      <c r="C227">
-        <v>10991</v>
+        <v>321</v>
+      </c>
+      <c r="C227" t="s">
+        <v>822</v>
       </c>
       <c r="D227" t="s">
-        <v>599</v>
+        <v>823</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>600</v>
+        <v>824</v>
       </c>
       <c r="B228" t="s">
-        <v>601</v>
-      </c>
-      <c r="C228">
-        <v>56785</v>
+        <v>825</v>
+      </c>
+      <c r="C228" t="s">
+        <v>826</v>
       </c>
       <c r="D228" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>602</v>
+        <v>827</v>
       </c>
       <c r="B229" t="s">
-        <v>602</v>
-      </c>
-      <c r="C229">
-        <v>0.44</v>
+        <v>827</v>
+      </c>
+      <c r="C229" t="s">
+        <v>828</v>
       </c>
       <c r="D229" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>603</v>
+        <v>829</v>
       </c>
       <c r="B230" t="s">
-        <v>604</v>
-      </c>
-      <c r="C230">
-        <v>116</v>
+        <v>830</v>
+      </c>
+      <c r="C230" t="s">
+        <v>831</v>
       </c>
       <c r="D230" t="s">
-        <v>605</v>
+        <v>832</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>606</v>
+        <v>833</v>
       </c>
       <c r="B231" t="s">
-        <v>607</v>
-      </c>
-      <c r="C231">
-        <v>276841</v>
+        <v>834</v>
+      </c>
+      <c r="C231" t="s">
+        <v>835</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>608</v>
+        <v>836</v>
       </c>
       <c r="B232" t="s">
-        <v>609</v>
-      </c>
-      <c r="C232">
-        <v>2842</v>
+        <v>837</v>
+      </c>
+      <c r="C232" t="s">
+        <v>838</v>
       </c>
       <c r="D232" t="s">
-        <v>610</v>
+        <v>839</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>611</v>
+        <v>840</v>
       </c>
       <c r="B233" t="s">
-        <v>612</v>
-      </c>
-      <c r="C233">
-        <v>60</v>
+        <v>841</v>
+      </c>
+      <c r="C233" t="s">
+        <v>842</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>613</v>
+        <v>843</v>
       </c>
       <c r="B234" t="s">
-        <v>614</v>
-      </c>
-      <c r="C234">
-        <v>923768</v>
+        <v>844</v>
+      </c>
+      <c r="C234" t="s">
+        <v>845</v>
       </c>
       <c r="D234" t="s">
-        <v>615</v>
+        <v>846</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>616</v>
+        <v>847</v>
       </c>
       <c r="B235" t="s">
-        <v>617</v>
-      </c>
-      <c r="C235">
-        <v>752612</v>
+        <v>848</v>
+      </c>
+      <c r="C235" t="s">
+        <v>849</v>
       </c>
       <c r="D235" t="s">
-        <v>618</v>
+        <v>850</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>619</v>
+        <v>851</v>
       </c>
       <c r="B236" t="s">
-        <v>620</v>
-      </c>
-      <c r="C236">
-        <v>7747</v>
+        <v>852</v>
+      </c>
+      <c r="C236" t="s">
+        <v>853</v>
       </c>
       <c r="D236" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>621</v>
+        <v>854</v>
       </c>
       <c r="B237" t="s">
-        <v>622</v>
-      </c>
-      <c r="C237">
-        <v>1284000</v>
+        <v>855</v>
+      </c>
+      <c r="C237" t="s">
+        <v>856</v>
       </c>
       <c r="D237" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>623</v>
+        <v>857</v>
       </c>
       <c r="B238" t="s">
-        <v>624</v>
-      </c>
-      <c r="C238">
-        <v>-1</v>
+        <v>858</v>
+      </c>
+      <c r="C238" t="s">
+        <v>859</v>
       </c>
       <c r="D238" t="s">
-        <v>501</v>
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>860</v>
       </c>
       <c r="B239" t="s">
-        <v>626</v>
-      </c>
-      <c r="C239">
-        <v>65300</v>
+        <v>861</v>
+      </c>
+      <c r="C239" t="s">
+        <v>862</v>
       </c>
       <c r="D239" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>627</v>
+        <v>863</v>
       </c>
       <c r="B240" t="s">
-        <v>628</v>
-      </c>
-      <c r="C240">
-        <v>603500</v>
+        <v>864</v>
+      </c>
+      <c r="C240" t="s">
+        <v>865</v>
       </c>
       <c r="D240" t="s">
-        <v>629</v>
+        <v>866</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>630</v>
+        <v>867</v>
       </c>
       <c r="B241" t="s">
-        <v>631</v>
-      </c>
-      <c r="C241">
-        <v>9706961</v>
+        <v>868</v>
+      </c>
+      <c r="C241" t="s">
+        <v>869</v>
       </c>
       <c r="D241" t="s">
-        <v>632</v>
+        <v>870</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>633</v>
+        <v>871</v>
       </c>
       <c r="B242" t="s">
-        <v>634</v>
-      </c>
-      <c r="C242">
-        <v>34.2</v>
+        <v>872</v>
+      </c>
+      <c r="C242" t="s">
+        <v>873</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>635</v>
+        <v>874</v>
       </c>
       <c r="B243" t="s">
-        <v>636</v>
-      </c>
-      <c r="C243">
-        <v>464</v>
+        <v>875</v>
+      </c>
+      <c r="C243" t="s">
+        <v>876</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>637</v>
+        <v>877</v>
       </c>
       <c r="B244" t="s">
-        <v>638</v>
-      </c>
-      <c r="C244">
-        <v>6220</v>
+        <v>878</v>
+      </c>
+      <c r="C244" t="s">
+        <v>879</v>
       </c>
       <c r="D244" t="s">
-        <v>639</v>
+        <v>880</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>640</v>
+        <v>881</v>
       </c>
       <c r="B245" t="s">
-        <v>641</v>
-      </c>
-      <c r="C245">
-        <v>2166086</v>
+        <v>882</v>
+      </c>
+      <c r="C245" t="s">
+        <v>883</v>
       </c>
       <c r="D245" t="s">
-        <v>437</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>642</v>
+        <v>884</v>
       </c>
       <c r="B246" t="s">
-        <v>643</v>
-      </c>
-      <c r="C246">
-        <v>619745</v>
+        <v>885</v>
+      </c>
+      <c r="C246" t="s">
+        <v>886</v>
       </c>
       <c r="D246" t="s">
-        <v>644</v>
+        <v>887</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>645</v>
+        <v>888</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
-      </c>
-      <c r="C247">
-        <v>147570</v>
+        <v>889</v>
+      </c>
+      <c r="C247" t="s">
+        <v>890</v>
       </c>
       <c r="D247" t="s">
-        <v>647</v>
+        <v>891</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>648</v>
+        <v>892</v>
       </c>
       <c r="B248" t="s">
-        <v>649</v>
-      </c>
-      <c r="C248">
-        <v>28051</v>
+        <v>893</v>
+      </c>
+      <c r="C248" t="s">
+        <v>894</v>
       </c>
       <c r="D248" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>650</v>
+        <v>895</v>
       </c>
       <c r="B249" t="s">
-        <v>651</v>
-      </c>
-      <c r="C249">
-        <v>825615</v>
+        <v>896</v>
+      </c>
+      <c r="C249" t="s">
+        <v>897</v>
       </c>
       <c r="D249" t="s">
-        <v>652</v>
+        <v>898</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>653</v>
+        <v>899</v>
       </c>
       <c r="B250" t="s">
-        <v>654</v>
-      </c>
-      <c r="C250">
-        <v>14874</v>
+        <v>900</v>
+      </c>
+      <c r="C250" t="s">
+        <v>901</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>655</v>
+        <v>902</v>
       </c>
       <c r="B251" t="s">
-        <v>656</v>
-      </c>
-      <c r="C251">
-        <v>5765</v>
+        <v>903</v>
+      </c>
+      <c r="C251" t="s">
+        <v>904</v>
       </c>
       <c r="D251" t="s">
-        <v>657</v>
+        <v>905</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>658</v>
+        <v>906</v>
       </c>
       <c r="B252" t="s">
-        <v>659</v>
-      </c>
-      <c r="C252">
-        <v>811</v>
+        <v>907</v>
+      </c>
+      <c r="C252" t="s">
+        <v>908</v>
       </c>
       <c r="D252" t="s">
-        <v>660</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
